--- a/Excel/镇魂街/excluWp.专属武器.xlsx
+++ b/Excel/镇魂街/excluWp.专属武器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="250">
   <si>
     <t>sheet名</t>
   </si>
@@ -858,6 +858,90 @@
   <si>
     <t>CritRate</t>
   </si>
+  <si>
+    <t>青龙偃月刀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎岩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂鲨铁戟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天坠灭星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风化煞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔法拉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>娑伽罗之刃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流光·幻影</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丈八蛇矛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼哭地狱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴食之爪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>镔铁盘龙棍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵灾祸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸神的裁决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色死神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命掠夺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰克星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百战陷阵枪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>断灭一闪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1534,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1741,8 +1825,8 @@
       <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
+      <c r="E4" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>182</v>
@@ -1793,8 +1877,8 @@
       <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>54</v>
+      <c r="E5" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>157</v>
@@ -1845,8 +1929,8 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>55</v>
+      <c r="E6" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>157</v>
@@ -1897,8 +1981,8 @@
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>56</v>
+      <c r="E7" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>157</v>
@@ -1949,8 +2033,8 @@
       <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
+      <c r="E8" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>157</v>
@@ -2001,8 +2085,8 @@
       <c r="D9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>58</v>
+      <c r="E9" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>157</v>
@@ -2053,8 +2137,8 @@
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>59</v>
+      <c r="E10" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>157</v>
@@ -2105,8 +2189,8 @@
       <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>60</v>
+      <c r="E11" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>157</v>
@@ -2157,8 +2241,8 @@
       <c r="D12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>61</v>
+      <c r="E12" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>157</v>
@@ -2209,8 +2293,8 @@
       <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
+      <c r="E13" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>157</v>
@@ -2261,8 +2345,8 @@
       <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>63</v>
+      <c r="E14" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>157</v>
@@ -2313,8 +2397,8 @@
       <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
+      <c r="E15" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>157</v>
@@ -2365,8 +2449,8 @@
       <c r="D16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>65</v>
+      <c r="E16" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>157</v>
@@ -2417,8 +2501,8 @@
       <c r="D17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>66</v>
+      <c r="E17" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>157</v>
@@ -2469,8 +2553,8 @@
       <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
+      <c r="E18" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>157</v>
@@ -2521,8 +2605,8 @@
       <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>68</v>
+      <c r="E19" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>157</v>
@@ -2573,8 +2657,8 @@
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>69</v>
+      <c r="E20" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>157</v>
@@ -2625,8 +2709,8 @@
       <c r="D21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>70</v>
+      <c r="E21" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>157</v>
@@ -2677,8 +2761,8 @@
       <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
+      <c r="E22" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>157</v>
@@ -2729,8 +2813,8 @@
       <c r="D23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
+      <c r="E23" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>157</v>
@@ -2781,8 +2865,8 @@
       <c r="D24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>73</v>
+      <c r="E24" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>157</v>
@@ -12907,7 +12991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4:M318"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/excluWp.专属武器.xlsx
+++ b/Excel/镇魂街/excluWp.专属武器.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB82E22-C6D3-411F-BCFB-3DD7AED2A4D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D83A905-10D9-4213-9E6B-30CA12EB41F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="274">
   <si>
     <t>sheet名</t>
   </si>
@@ -996,6 +996,22 @@
   </si>
   <si>
     <t>ui_dtex_Equip_1501021</t>
+  </si>
+  <si>
+    <t>武器预设</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponPrefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponFx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1673,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2971,7 +2987,7 @@
   <dimension ref="A1:O235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:G43"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2982,11 +2998,10 @@
     <col min="6" max="10" width="16.25" customWidth="1"/>
     <col min="11" max="11" width="21.875" customWidth="1"/>
     <col min="12" max="13" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="17.375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>119</v>
       </c>
@@ -3029,8 +3044,11 @@
       <c r="N1" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -3073,8 +3091,11 @@
       <c r="N2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>121</v>
       </c>
@@ -3117,8 +3138,11 @@
       <c r="N3" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O3" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3161,8 +3185,9 @@
       <c r="N4" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3201,8 +3226,9 @@
       <c r="N5" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3241,8 +3267,9 @@
       <c r="N6" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3281,8 +3308,9 @@
       <c r="N7" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3325,8 +3353,9 @@
       <c r="N8" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3369,8 +3398,9 @@
       <c r="N9" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3413,8 +3443,9 @@
       <c r="N10" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3457,8 +3488,9 @@
       <c r="N11" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3501,8 +3533,9 @@
       <c r="N12" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3545,8 +3578,9 @@
       <c r="N13" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3589,8 +3623,9 @@
       <c r="N14" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3633,8 +3668,9 @@
       <c r="N15" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3673,8 +3709,9 @@
       <c r="N16" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3713,8 +3750,9 @@
       <c r="N17" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3753,8 +3791,9 @@
       <c r="N18" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3797,8 +3836,9 @@
       <c r="N19" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3841,8 +3881,9 @@
       <c r="N20" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3885,8 +3926,9 @@
       <c r="N21" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3929,8 +3971,9 @@
       <c r="N22" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3973,8 +4016,9 @@
       <c r="N23" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4017,8 +4061,9 @@
       <c r="N24" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4061,8 +4106,9 @@
       <c r="N25" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4105,8 +4151,9 @@
       <c r="N26" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -4145,8 +4192,9 @@
       <c r="N27" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -4185,8 +4233,9 @@
       <c r="N28" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -4225,8 +4274,9 @@
       <c r="N29" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -4269,8 +4319,9 @@
       <c r="N30" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -4313,8 +4364,9 @@
       <c r="N31" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -4357,8 +4409,9 @@
       <c r="N32" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -4401,8 +4454,9 @@
       <c r="N33" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -4445,8 +4499,9 @@
       <c r="N34" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -4489,8 +4544,9 @@
       <c r="N35" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -4533,8 +4589,9 @@
       <c r="N36" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -4577,8 +4634,9 @@
       <c r="N37" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -4617,8 +4675,9 @@
       <c r="N38" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4657,8 +4716,9 @@
       <c r="N39" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -4697,8 +4757,9 @@
       <c r="N40" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -4741,8 +4802,9 @@
       <c r="N41" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -4785,8 +4847,9 @@
       <c r="N42" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -4829,8 +4892,9 @@
       <c r="N43" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -4873,8 +4937,9 @@
       <c r="N44" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -4917,8 +4982,9 @@
       <c r="N45" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -4961,8 +5027,9 @@
       <c r="N46" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -5005,8 +5072,9 @@
       <c r="N47" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -5049,8 +5117,9 @@
       <c r="N48" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -5089,8 +5158,9 @@
       <c r="N49" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -5129,8 +5199,9 @@
       <c r="N50" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -5169,8 +5240,9 @@
       <c r="N51" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -5213,8 +5285,9 @@
       <c r="N52" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -5257,8 +5330,9 @@
       <c r="N53" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -5301,8 +5375,9 @@
       <c r="N54" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -5345,8 +5420,9 @@
       <c r="N55" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -5389,8 +5465,9 @@
       <c r="N56" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -5433,8 +5510,9 @@
       <c r="N57" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -5477,8 +5555,9 @@
       <c r="N58" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -5521,8 +5600,9 @@
       <c r="N59" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -5561,8 +5641,9 @@
       <c r="N60" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -5601,8 +5682,9 @@
       <c r="N61" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -5641,8 +5723,9 @@
       <c r="N62" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -5685,8 +5768,9 @@
       <c r="N63" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -5729,8 +5813,9 @@
       <c r="N64" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -5773,8 +5858,9 @@
       <c r="N65" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -5817,8 +5903,9 @@
       <c r="N66" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -5861,8 +5948,9 @@
       <c r="N67" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -5905,8 +5993,9 @@
       <c r="N68" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -5949,8 +6038,9 @@
       <c r="N69" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -5993,8 +6083,9 @@
       <c r="N70" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -6033,8 +6124,9 @@
       <c r="N71" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -6073,8 +6165,9 @@
       <c r="N72" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -6113,8 +6206,9 @@
       <c r="N73" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -6157,8 +6251,9 @@
       <c r="N74" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -6201,8 +6296,9 @@
       <c r="N75" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -6245,8 +6341,9 @@
       <c r="N76" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -6289,8 +6386,9 @@
       <c r="N77" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -6333,8 +6431,9 @@
       <c r="N78" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -6377,8 +6476,9 @@
       <c r="N79" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -6421,8 +6521,9 @@
       <c r="N80" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -6465,8 +6566,9 @@
       <c r="N81" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -6505,8 +6607,9 @@
       <c r="N82" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -6545,8 +6648,9 @@
       <c r="N83" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -6585,8 +6689,9 @@
       <c r="N84" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -6629,8 +6734,9 @@
       <c r="N85" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -6673,8 +6779,9 @@
       <c r="N86" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -6717,8 +6824,9 @@
       <c r="N87" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -6761,8 +6869,9 @@
       <c r="N88" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -6805,8 +6914,9 @@
       <c r="N89" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -6849,8 +6959,9 @@
       <c r="N90" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -6893,8 +7004,9 @@
       <c r="N91" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -6937,8 +7049,9 @@
       <c r="N92" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -6977,8 +7090,9 @@
       <c r="N93" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -7017,8 +7131,9 @@
       <c r="N94" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -7057,8 +7172,9 @@
       <c r="N95" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -7101,8 +7217,9 @@
       <c r="N96" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -7145,8 +7262,9 @@
       <c r="N97" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -7189,8 +7307,9 @@
       <c r="N98" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -7233,8 +7352,9 @@
       <c r="N99" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -7277,8 +7397,9 @@
       <c r="N100" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -7321,8 +7442,9 @@
       <c r="N101" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -7365,8 +7487,9 @@
       <c r="N102" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -7409,8 +7532,9 @@
       <c r="N103" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -7449,8 +7573,9 @@
       <c r="N104" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -7489,8 +7614,9 @@
       <c r="N105" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -7529,8 +7655,9 @@
       <c r="N106" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -7573,8 +7700,9 @@
       <c r="N107" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -7617,8 +7745,9 @@
       <c r="N108" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -7661,8 +7790,9 @@
       <c r="N109" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -7705,8 +7835,9 @@
       <c r="N110" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -7749,8 +7880,9 @@
       <c r="N111" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -7793,8 +7925,9 @@
       <c r="N112" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -7837,8 +7970,9 @@
       <c r="N113" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -7881,8 +8015,9 @@
       <c r="N114" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -7921,8 +8056,9 @@
       <c r="N115" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O115" s="3"/>
+    </row>
+    <row r="116" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -7961,8 +8097,9 @@
       <c r="N116" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O116" s="3"/>
+    </row>
+    <row r="117" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -8001,8 +8138,9 @@
       <c r="N117" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -8045,8 +8183,9 @@
       <c r="N118" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -8089,8 +8228,9 @@
       <c r="N119" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -8133,8 +8273,9 @@
       <c r="N120" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -8177,8 +8318,9 @@
       <c r="N121" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -8221,8 +8363,9 @@
       <c r="N122" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -8265,8 +8408,9 @@
       <c r="N123" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O123" s="3"/>
+    </row>
+    <row r="124" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -8309,8 +8453,9 @@
       <c r="N124" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -8353,8 +8498,9 @@
       <c r="N125" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O125" s="3"/>
+    </row>
+    <row r="126" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -8393,8 +8539,9 @@
       <c r="N126" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -8433,8 +8580,9 @@
       <c r="N127" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O127" s="3"/>
+    </row>
+    <row r="128" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -8473,8 +8621,9 @@
       <c r="N128" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O128" s="3"/>
+    </row>
+    <row r="129" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -8517,8 +8666,9 @@
       <c r="N129" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -8561,8 +8711,9 @@
       <c r="N130" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -8605,8 +8756,9 @@
       <c r="N131" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -8649,8 +8801,9 @@
       <c r="N132" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O132" s="3"/>
+    </row>
+    <row r="133" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -8693,8 +8846,9 @@
       <c r="N133" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O133" s="3"/>
+    </row>
+    <row r="134" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -8737,8 +8891,9 @@
       <c r="N134" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O134" s="3"/>
+    </row>
+    <row r="135" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -8781,8 +8936,9 @@
       <c r="N135" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O135" s="3"/>
+    </row>
+    <row r="136" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -8825,8 +8981,9 @@
       <c r="N136" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O136" s="3"/>
+    </row>
+    <row r="137" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -8865,8 +9022,9 @@
       <c r="N137" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O137" s="3"/>
+    </row>
+    <row r="138" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -8905,8 +9063,9 @@
       <c r="N138" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O138" s="3"/>
+    </row>
+    <row r="139" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -8945,8 +9104,9 @@
       <c r="N139" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O139" s="3"/>
+    </row>
+    <row r="140" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -8989,8 +9149,9 @@
       <c r="N140" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O140" s="3"/>
+    </row>
+    <row r="141" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -9033,8 +9194,9 @@
       <c r="N141" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -9077,8 +9239,9 @@
       <c r="N142" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -9121,8 +9284,9 @@
       <c r="N143" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O143" s="3"/>
+    </row>
+    <row r="144" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -9165,8 +9329,9 @@
       <c r="N144" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O144" s="3"/>
+    </row>
+    <row r="145" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -9209,8 +9374,9 @@
       <c r="N145" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -9253,8 +9419,9 @@
       <c r="N146" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O146" s="3"/>
+    </row>
+    <row r="147" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -9297,8 +9464,9 @@
       <c r="N147" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -9337,8 +9505,9 @@
       <c r="N148" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -9377,8 +9546,9 @@
       <c r="N149" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -9417,8 +9587,9 @@
       <c r="N150" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -9461,8 +9632,9 @@
       <c r="N151" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -9505,8 +9677,9 @@
       <c r="N152" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O152" s="3"/>
+    </row>
+    <row r="153" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -9549,8 +9722,9 @@
       <c r="N153" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -9593,8 +9767,9 @@
       <c r="N154" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -9637,8 +9812,9 @@
       <c r="N155" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -9681,8 +9857,9 @@
       <c r="N156" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>154</v>
       </c>
@@ -9725,8 +9902,9 @@
       <c r="N157" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>155</v>
       </c>
@@ -9769,8 +9947,9 @@
       <c r="N158" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O158" s="3"/>
+    </row>
+    <row r="159" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>156</v>
       </c>
@@ -9809,8 +9988,9 @@
       <c r="N159" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>157</v>
       </c>
@@ -9849,8 +10029,9 @@
       <c r="N160" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O160" s="3"/>
+    </row>
+    <row r="161" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>158</v>
       </c>
@@ -9889,8 +10070,9 @@
       <c r="N161" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>159</v>
       </c>
@@ -9933,8 +10115,9 @@
       <c r="N162" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O162" s="3"/>
+    </row>
+    <row r="163" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>160</v>
       </c>
@@ -9977,8 +10160,9 @@
       <c r="N163" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O163" s="3"/>
+    </row>
+    <row r="164" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>161</v>
       </c>
@@ -10021,8 +10205,9 @@
       <c r="N164" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>162</v>
       </c>
@@ -10065,8 +10250,9 @@
       <c r="N165" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>163</v>
       </c>
@@ -10109,8 +10295,9 @@
       <c r="N166" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>164</v>
       </c>
@@ -10153,8 +10340,9 @@
       <c r="N167" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O167" s="3"/>
+    </row>
+    <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>165</v>
       </c>
@@ -10197,8 +10385,9 @@
       <c r="N168" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O168" s="3"/>
+    </row>
+    <row r="169" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>166</v>
       </c>
@@ -10241,8 +10430,9 @@
       <c r="N169" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O169" s="3"/>
+    </row>
+    <row r="170" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>167</v>
       </c>
@@ -10281,8 +10471,9 @@
       <c r="N170" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O170" s="3"/>
+    </row>
+    <row r="171" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>168</v>
       </c>
@@ -10321,8 +10512,9 @@
       <c r="N171" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O171" s="3"/>
+    </row>
+    <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>169</v>
       </c>
@@ -10361,8 +10553,9 @@
       <c r="N172" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O172" s="3"/>
+    </row>
+    <row r="173" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>170</v>
       </c>
@@ -10405,8 +10598,9 @@
       <c r="N173" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O173" s="3"/>
+    </row>
+    <row r="174" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>171</v>
       </c>
@@ -10449,8 +10643,9 @@
       <c r="N174" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O174" s="3"/>
+    </row>
+    <row r="175" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>172</v>
       </c>
@@ -10493,8 +10688,9 @@
       <c r="N175" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O175" s="3"/>
+    </row>
+    <row r="176" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>173</v>
       </c>
@@ -10537,8 +10733,9 @@
       <c r="N176" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O176" s="3"/>
+    </row>
+    <row r="177" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>174</v>
       </c>
@@ -10581,8 +10778,9 @@
       <c r="N177" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O177" s="3"/>
+    </row>
+    <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>175</v>
       </c>
@@ -10625,8 +10823,9 @@
       <c r="N178" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O178" s="3"/>
+    </row>
+    <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>176</v>
       </c>
@@ -10669,8 +10868,9 @@
       <c r="N179" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O179" s="3"/>
+    </row>
+    <row r="180" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>177</v>
       </c>
@@ -10713,8 +10913,9 @@
       <c r="N180" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O180" s="3"/>
+    </row>
+    <row r="181" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>178</v>
       </c>
@@ -10753,8 +10954,9 @@
       <c r="N181" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O181" s="3"/>
+    </row>
+    <row r="182" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>179</v>
       </c>
@@ -10793,8 +10995,9 @@
       <c r="N182" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O182" s="3"/>
+    </row>
+    <row r="183" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>180</v>
       </c>
@@ -10833,8 +11036,9 @@
       <c r="N183" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O183" s="3"/>
+    </row>
+    <row r="184" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -10877,8 +11081,9 @@
       <c r="N184" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O184" s="3"/>
+    </row>
+    <row r="185" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>182</v>
       </c>
@@ -10921,8 +11126,9 @@
       <c r="N185" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O185" s="3"/>
+    </row>
+    <row r="186" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>183</v>
       </c>
@@ -10965,8 +11171,9 @@
       <c r="N186" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O186" s="3"/>
+    </row>
+    <row r="187" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>184</v>
       </c>
@@ -11009,8 +11216,9 @@
       <c r="N187" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O187" s="3"/>
+    </row>
+    <row r="188" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>185</v>
       </c>
@@ -11053,8 +11261,9 @@
       <c r="N188" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O188" s="3"/>
+    </row>
+    <row r="189" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>186</v>
       </c>
@@ -11097,8 +11306,9 @@
       <c r="N189" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O189" s="3"/>
+    </row>
+    <row r="190" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>187</v>
       </c>
@@ -11141,8 +11351,9 @@
       <c r="N190" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O190" s="3"/>
+    </row>
+    <row r="191" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>188</v>
       </c>
@@ -11185,8 +11396,9 @@
       <c r="N191" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O191" s="3"/>
+    </row>
+    <row r="192" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>189</v>
       </c>
@@ -11225,8 +11437,9 @@
       <c r="N192" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O192" s="3"/>
+    </row>
+    <row r="193" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>190</v>
       </c>
@@ -11265,8 +11478,9 @@
       <c r="N193" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O193" s="3"/>
+    </row>
+    <row r="194" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>191</v>
       </c>
@@ -11305,8 +11519,9 @@
       <c r="N194" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O194" s="3"/>
+    </row>
+    <row r="195" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>192</v>
       </c>
@@ -11349,8 +11564,9 @@
       <c r="N195" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O195" s="3"/>
+    </row>
+    <row r="196" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>193</v>
       </c>
@@ -11393,8 +11609,9 @@
       <c r="N196" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O196" s="3"/>
+    </row>
+    <row r="197" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>194</v>
       </c>
@@ -11437,8 +11654,9 @@
       <c r="N197" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O197" s="3"/>
+    </row>
+    <row r="198" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>195</v>
       </c>
@@ -11481,8 +11699,9 @@
       <c r="N198" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O198" s="3"/>
+    </row>
+    <row r="199" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>196</v>
       </c>
@@ -11525,8 +11744,9 @@
       <c r="N199" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O199" s="3"/>
+    </row>
+    <row r="200" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>197</v>
       </c>
@@ -11569,8 +11789,9 @@
       <c r="N200" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O200" s="3"/>
+    </row>
+    <row r="201" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>198</v>
       </c>
@@ -11613,8 +11834,9 @@
       <c r="N201" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O201" s="3"/>
+    </row>
+    <row r="202" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>199</v>
       </c>
@@ -11657,8 +11879,9 @@
       <c r="N202" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O202" s="3"/>
+    </row>
+    <row r="203" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>200</v>
       </c>
@@ -11697,8 +11920,9 @@
       <c r="N203" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O203" s="3"/>
+    </row>
+    <row r="204" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>201</v>
       </c>
@@ -11737,8 +11961,9 @@
       <c r="N204" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O204" s="3"/>
+    </row>
+    <row r="205" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>202</v>
       </c>
@@ -11777,8 +12002,9 @@
       <c r="N205" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O205" s="3"/>
+    </row>
+    <row r="206" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>203</v>
       </c>
@@ -11821,8 +12047,9 @@
       <c r="N206" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O206" s="3"/>
+    </row>
+    <row r="207" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>204</v>
       </c>
@@ -11865,8 +12092,9 @@
       <c r="N207" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O207" s="3"/>
+    </row>
+    <row r="208" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>205</v>
       </c>
@@ -11909,8 +12137,9 @@
       <c r="N208" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>206</v>
       </c>
@@ -11953,8 +12182,9 @@
       <c r="N209" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O209" s="3"/>
+    </row>
+    <row r="210" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>207</v>
       </c>
@@ -11997,8 +12227,9 @@
       <c r="N210" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O210" s="3"/>
+    </row>
+    <row r="211" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>208</v>
       </c>
@@ -12041,8 +12272,9 @@
       <c r="N211" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>209</v>
       </c>
@@ -12085,8 +12317,9 @@
       <c r="N212" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O212" s="3"/>
+    </row>
+    <row r="213" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>210</v>
       </c>
@@ -12129,8 +12362,9 @@
       <c r="N213" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O213" s="3"/>
+    </row>
+    <row r="214" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>211</v>
       </c>
@@ -12169,8 +12403,9 @@
       <c r="N214" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O214" s="3"/>
+    </row>
+    <row r="215" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>212</v>
       </c>
@@ -12209,8 +12444,9 @@
       <c r="N215" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O215" s="3"/>
+    </row>
+    <row r="216" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>213</v>
       </c>
@@ -12249,8 +12485,9 @@
       <c r="N216" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O216" s="3"/>
+    </row>
+    <row r="217" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>214</v>
       </c>
@@ -12293,8 +12530,9 @@
       <c r="N217" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O217" s="3"/>
+    </row>
+    <row r="218" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>215</v>
       </c>
@@ -12337,8 +12575,9 @@
       <c r="N218" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>216</v>
       </c>
@@ -12381,8 +12620,9 @@
       <c r="N219" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O219" s="3"/>
+    </row>
+    <row r="220" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>217</v>
       </c>
@@ -12425,8 +12665,9 @@
       <c r="N220" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O220" s="3"/>
+    </row>
+    <row r="221" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>218</v>
       </c>
@@ -12469,8 +12710,9 @@
       <c r="N221" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O221" s="3"/>
+    </row>
+    <row r="222" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>219</v>
       </c>
@@ -12513,8 +12755,9 @@
       <c r="N222" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O222" s="3"/>
+    </row>
+    <row r="223" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>220</v>
       </c>
@@ -12557,8 +12800,9 @@
       <c r="N223" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O223" s="3"/>
+    </row>
+    <row r="224" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -12601,8 +12845,9 @@
       <c r="N224" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O224" s="3"/>
+    </row>
+    <row r="225" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>222</v>
       </c>
@@ -12641,8 +12886,9 @@
       <c r="N225" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O225" s="3"/>
+    </row>
+    <row r="226" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>223</v>
       </c>
@@ -12681,8 +12927,9 @@
       <c r="N226" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O226" s="3"/>
+    </row>
+    <row r="227" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>224</v>
       </c>
@@ -12721,8 +12968,9 @@
       <c r="N227" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O227" s="3"/>
+    </row>
+    <row r="228" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>225</v>
       </c>
@@ -12765,8 +13013,9 @@
       <c r="N228" s="3">
         <v>0.48000000000000004</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O228" s="3"/>
+    </row>
+    <row r="229" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>226</v>
       </c>
@@ -12809,8 +13058,9 @@
       <c r="N229" s="3">
         <v>0.58000000000000007</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O229" s="3"/>
+    </row>
+    <row r="230" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>227</v>
       </c>
@@ -12853,8 +13103,9 @@
       <c r="N230" s="3">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O230" s="3"/>
+    </row>
+    <row r="231" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>228</v>
       </c>
@@ -12897,8 +13148,9 @@
       <c r="N231" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O231" s="3"/>
+    </row>
+    <row r="232" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>229</v>
       </c>
@@ -12941,8 +13193,9 @@
       <c r="N232" s="3">
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O232" s="3"/>
+    </row>
+    <row r="233" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>230</v>
       </c>
@@ -12985,8 +13238,9 @@
       <c r="N233" s="3">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O233" s="3"/>
+    </row>
+    <row r="234" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>231</v>
       </c>
@@ -13029,8 +13283,9 @@
       <c r="N234" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O234" s="3"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
@@ -13044,10 +13299,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:M318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13063,9 +13318,10 @@
     <col min="11" max="11" width="26.375" customWidth="1"/>
     <col min="12" max="12" width="10.875" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>122</v>
       </c>
@@ -13105,8 +13361,11 @@
       <c r="M1" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -13146,8 +13405,11 @@
       <c r="M2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>113</v>
       </c>
@@ -13187,8 +13449,11 @@
       <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N3" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -13228,8 +13493,9 @@
       <c r="M4" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -13269,8 +13535,9 @@
       <c r="M5" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -13311,8 +13578,9 @@
       <c r="M6" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -13353,8 +13621,9 @@
       <c r="M7" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -13395,8 +13664,9 @@
       <c r="M8" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -13437,8 +13707,9 @@
       <c r="M9" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -13479,8 +13750,9 @@
       <c r="M10" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -13521,8 +13793,9 @@
       <c r="M11" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -13563,8 +13836,9 @@
       <c r="M12" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -13605,8 +13879,9 @@
       <c r="M13" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -13647,8 +13922,9 @@
       <c r="M14" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -13689,8 +13965,9 @@
       <c r="M15" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -13731,8 +14008,9 @@
       <c r="M16" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -13773,8 +14051,9 @@
       <c r="M17" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -13815,8 +14094,9 @@
       <c r="M18" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -13856,8 +14136,9 @@
       <c r="M19" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -13897,8 +14178,9 @@
       <c r="M20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -13939,8 +14221,9 @@
       <c r="M21" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -13981,8 +14264,9 @@
       <c r="M22" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -14023,8 +14307,9 @@
       <c r="M23" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -14065,8 +14350,9 @@
       <c r="M24" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -14107,8 +14393,9 @@
       <c r="M25" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -14149,8 +14436,9 @@
       <c r="M26" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -14191,8 +14479,9 @@
       <c r="M27" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -14233,8 +14522,9 @@
       <c r="M28" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -14275,8 +14565,9 @@
       <c r="M29" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -14317,8 +14608,9 @@
       <c r="M30" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -14359,8 +14651,9 @@
       <c r="M31" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -14401,8 +14694,9 @@
       <c r="M32" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -14443,8 +14737,9 @@
       <c r="M33" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -14484,8 +14779,9 @@
       <c r="M34" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -14525,8 +14821,9 @@
       <c r="M35" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -14567,8 +14864,9 @@
       <c r="M36" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -14609,8 +14907,9 @@
       <c r="M37" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -14651,8 +14950,9 @@
       <c r="M38" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -14693,8 +14993,9 @@
       <c r="M39" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -14735,8 +15036,9 @@
       <c r="M40" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -14777,8 +15079,9 @@
       <c r="M41" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -14819,8 +15122,9 @@
       <c r="M42" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -14861,8 +15165,9 @@
       <c r="M43" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -14903,8 +15208,9 @@
       <c r="M44" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -14945,8 +15251,9 @@
       <c r="M45" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -14987,8 +15294,9 @@
       <c r="M46" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -15029,8 +15337,9 @@
       <c r="M47" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -15071,8 +15380,9 @@
       <c r="M48" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -15112,8 +15422,9 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -15153,8 +15464,9 @@
       <c r="M50" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -15195,8 +15507,9 @@
       <c r="M51" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -15237,8 +15550,9 @@
       <c r="M52" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -15279,8 +15593,9 @@
       <c r="M53" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -15321,8 +15636,9 @@
       <c r="M54" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -15363,8 +15679,9 @@
       <c r="M55" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -15405,8 +15722,9 @@
       <c r="M56" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -15447,8 +15765,9 @@
       <c r="M57" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -15489,8 +15808,9 @@
       <c r="M58" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -15531,8 +15851,9 @@
       <c r="M59" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -15573,8 +15894,9 @@
       <c r="M60" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -15615,8 +15937,9 @@
       <c r="M61" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -15657,8 +15980,9 @@
       <c r="M62" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -15699,8 +16023,9 @@
       <c r="M63" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -15740,8 +16065,9 @@
       <c r="M64" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -15781,8 +16107,9 @@
       <c r="M65" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -15823,8 +16150,9 @@
       <c r="M66" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -15865,8 +16193,9 @@
       <c r="M67" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -15907,8 +16236,9 @@
       <c r="M68" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -15949,8 +16279,9 @@
       <c r="M69" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -15991,8 +16322,9 @@
       <c r="M70" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -16033,8 +16365,9 @@
       <c r="M71" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -16075,8 +16408,9 @@
       <c r="M72" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -16117,8 +16451,9 @@
       <c r="M73" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -16159,8 +16494,9 @@
       <c r="M74" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -16201,8 +16537,9 @@
       <c r="M75" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -16243,8 +16580,9 @@
       <c r="M76" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -16285,8 +16623,9 @@
       <c r="M77" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -16327,8 +16666,9 @@
       <c r="M78" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -16368,8 +16708,9 @@
       <c r="M79" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -16409,8 +16750,9 @@
       <c r="M80" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -16451,8 +16793,9 @@
       <c r="M81" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -16493,8 +16836,9 @@
       <c r="M82" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -16535,8 +16879,9 @@
       <c r="M83" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -16577,8 +16922,9 @@
       <c r="M84" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -16619,8 +16965,9 @@
       <c r="M85" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -16661,8 +17008,9 @@
       <c r="M86" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -16703,8 +17051,9 @@
       <c r="M87" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -16745,8 +17094,9 @@
       <c r="M88" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -16787,8 +17137,9 @@
       <c r="M89" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -16829,8 +17180,9 @@
       <c r="M90" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -16871,8 +17223,9 @@
       <c r="M91" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -16913,8 +17266,9 @@
       <c r="M92" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -16955,8 +17309,9 @@
       <c r="M93" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -16996,8 +17351,9 @@
       <c r="M94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -17037,8 +17393,9 @@
       <c r="M95" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -17079,8 +17436,9 @@
       <c r="M96" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -17121,8 +17479,9 @@
       <c r="M97" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -17163,8 +17522,9 @@
       <c r="M98" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -17205,8 +17565,9 @@
       <c r="M99" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -17247,8 +17608,9 @@
       <c r="M100" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -17289,8 +17651,9 @@
       <c r="M101" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -17331,8 +17694,9 @@
       <c r="M102" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -17373,8 +17737,9 @@
       <c r="M103" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -17415,8 +17780,9 @@
       <c r="M104" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -17457,8 +17823,9 @@
       <c r="M105" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -17499,8 +17866,9 @@
       <c r="M106" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -17541,8 +17909,9 @@
       <c r="M107" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -17583,8 +17952,9 @@
       <c r="M108" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -17624,8 +17994,9 @@
       <c r="M109" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -17665,8 +18036,9 @@
       <c r="M110" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -17707,8 +18079,9 @@
       <c r="M111" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -17749,8 +18122,9 @@
       <c r="M112" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -17791,8 +18165,9 @@
       <c r="M113" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -17833,8 +18208,9 @@
       <c r="M114" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -17875,8 +18251,9 @@
       <c r="M115" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -17917,8 +18294,9 @@
       <c r="M116" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -17959,8 +18337,9 @@
       <c r="M117" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -18001,8 +18380,9 @@
       <c r="M118" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -18043,8 +18423,9 @@
       <c r="M119" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -18085,8 +18466,9 @@
       <c r="M120" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -18127,8 +18509,9 @@
       <c r="M121" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -18169,8 +18552,9 @@
       <c r="M122" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N122" s="3"/>
+    </row>
+    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -18211,8 +18595,9 @@
       <c r="M123" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N123" s="3"/>
+    </row>
+    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -18252,8 +18637,9 @@
       <c r="M124" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N124" s="3"/>
+    </row>
+    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -18293,8 +18679,9 @@
       <c r="M125" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N125" s="3"/>
+    </row>
+    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -18335,8 +18722,9 @@
       <c r="M126" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N126" s="3"/>
+    </row>
+    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -18377,8 +18765,9 @@
       <c r="M127" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N127" s="3"/>
+    </row>
+    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -18419,8 +18808,9 @@
       <c r="M128" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -18461,8 +18851,9 @@
       <c r="M129" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -18503,8 +18894,9 @@
       <c r="M130" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N130" s="3"/>
+    </row>
+    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -18545,8 +18937,9 @@
       <c r="M131" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N131" s="3"/>
+    </row>
+    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -18587,8 +18980,9 @@
       <c r="M132" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -18629,8 +19023,9 @@
       <c r="M133" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N133" s="3"/>
+    </row>
+    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -18671,8 +19066,9 @@
       <c r="M134" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -18713,8 +19109,9 @@
       <c r="M135" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N135" s="3"/>
+    </row>
+    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -18755,8 +19152,9 @@
       <c r="M136" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -18797,8 +19195,9 @@
       <c r="M137" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N137" s="3"/>
+    </row>
+    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -18839,8 +19238,9 @@
       <c r="M138" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N138" s="3"/>
+    </row>
+    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -18880,8 +19280,9 @@
       <c r="M139" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N139" s="3"/>
+    </row>
+    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -18921,8 +19322,9 @@
       <c r="M140" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N140" s="3"/>
+    </row>
+    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -18963,8 +19365,9 @@
       <c r="M141" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N141" s="3"/>
+    </row>
+    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -19005,8 +19408,9 @@
       <c r="M142" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -19047,8 +19451,9 @@
       <c r="M143" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N143" s="3"/>
+    </row>
+    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -19089,8 +19494,9 @@
       <c r="M144" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -19131,8 +19537,9 @@
       <c r="M145" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -19173,8 +19580,9 @@
       <c r="M146" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -19215,8 +19623,9 @@
       <c r="M147" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -19257,8 +19666,9 @@
       <c r="M148" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -19299,8 +19709,9 @@
       <c r="M149" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -19341,8 +19752,9 @@
       <c r="M150" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -19383,8 +19795,9 @@
       <c r="M151" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N151" s="3"/>
+    </row>
+    <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -19425,8 +19838,9 @@
       <c r="M152" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N152" s="3"/>
+    </row>
+    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -19467,8 +19881,9 @@
       <c r="M153" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N153" s="3"/>
+    </row>
+    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -19508,8 +19923,9 @@
       <c r="M154" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N154" s="3"/>
+    </row>
+    <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -19549,8 +19965,9 @@
       <c r="M155" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N155" s="3"/>
+    </row>
+    <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -19591,8 +20008,9 @@
       <c r="M156" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N156" s="3"/>
+    </row>
+    <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>154</v>
       </c>
@@ -19633,8 +20051,9 @@
       <c r="M157" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N157" s="3"/>
+    </row>
+    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>155</v>
       </c>
@@ -19675,8 +20094,9 @@
       <c r="M158" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N158" s="3"/>
+    </row>
+    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>156</v>
       </c>
@@ -19717,8 +20137,9 @@
       <c r="M159" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N159" s="3"/>
+    </row>
+    <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>157</v>
       </c>
@@ -19759,8 +20180,9 @@
       <c r="M160" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N160" s="3"/>
+    </row>
+    <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>158</v>
       </c>
@@ -19801,8 +20223,9 @@
       <c r="M161" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N161" s="3"/>
+    </row>
+    <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>159</v>
       </c>
@@ -19843,8 +20266,9 @@
       <c r="M162" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N162" s="3"/>
+    </row>
+    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>160</v>
       </c>
@@ -19885,8 +20309,9 @@
       <c r="M163" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N163" s="3"/>
+    </row>
+    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>161</v>
       </c>
@@ -19927,8 +20352,9 @@
       <c r="M164" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N164" s="3"/>
+    </row>
+    <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>162</v>
       </c>
@@ -19969,8 +20395,9 @@
       <c r="M165" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N165" s="3"/>
+    </row>
+    <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>163</v>
       </c>
@@ -20011,8 +20438,9 @@
       <c r="M166" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N166" s="3"/>
+    </row>
+    <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>164</v>
       </c>
@@ -20053,8 +20481,9 @@
       <c r="M167" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N167" s="3"/>
+    </row>
+    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>165</v>
       </c>
@@ -20095,8 +20524,9 @@
       <c r="M168" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N168" s="3"/>
+    </row>
+    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>166</v>
       </c>
@@ -20136,8 +20566,9 @@
       <c r="M169" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N169" s="3"/>
+    </row>
+    <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>167</v>
       </c>
@@ -20177,8 +20608,9 @@
       <c r="M170" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N170" s="3"/>
+    </row>
+    <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>168</v>
       </c>
@@ -20219,8 +20651,9 @@
       <c r="M171" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N171" s="3"/>
+    </row>
+    <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>169</v>
       </c>
@@ -20261,8 +20694,9 @@
       <c r="M172" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N172" s="3"/>
+    </row>
+    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>170</v>
       </c>
@@ -20303,8 +20737,9 @@
       <c r="M173" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N173" s="3"/>
+    </row>
+    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>171</v>
       </c>
@@ -20345,8 +20780,9 @@
       <c r="M174" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N174" s="3"/>
+    </row>
+    <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>172</v>
       </c>
@@ -20387,8 +20823,9 @@
       <c r="M175" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N175" s="3"/>
+    </row>
+    <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>173</v>
       </c>
@@ -20429,8 +20866,9 @@
       <c r="M176" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N176" s="3"/>
+    </row>
+    <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>174</v>
       </c>
@@ -20471,8 +20909,9 @@
       <c r="M177" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N177" s="3"/>
+    </row>
+    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>175</v>
       </c>
@@ -20513,8 +20952,9 @@
       <c r="M178" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N178" s="3"/>
+    </row>
+    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>176</v>
       </c>
@@ -20555,8 +20995,9 @@
       <c r="M179" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N179" s="3"/>
+    </row>
+    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>177</v>
       </c>
@@ -20597,8 +21038,9 @@
       <c r="M180" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N180" s="3"/>
+    </row>
+    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>178</v>
       </c>
@@ -20639,8 +21081,9 @@
       <c r="M181" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N181" s="3"/>
+    </row>
+    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>179</v>
       </c>
@@ -20681,8 +21124,9 @@
       <c r="M182" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N182" s="3"/>
+    </row>
+    <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>180</v>
       </c>
@@ -20723,8 +21167,9 @@
       <c r="M183" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N183" s="3"/>
+    </row>
+    <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -20764,8 +21209,9 @@
       <c r="M184" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N184" s="3"/>
+    </row>
+    <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>182</v>
       </c>
@@ -20805,8 +21251,9 @@
       <c r="M185" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N185" s="3"/>
+    </row>
+    <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>183</v>
       </c>
@@ -20847,8 +21294,9 @@
       <c r="M186" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N186" s="3"/>
+    </row>
+    <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>184</v>
       </c>
@@ -20889,8 +21337,9 @@
       <c r="M187" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N187" s="3"/>
+    </row>
+    <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>185</v>
       </c>
@@ -20931,8 +21380,9 @@
       <c r="M188" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N188" s="3"/>
+    </row>
+    <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>186</v>
       </c>
@@ -20973,8 +21423,9 @@
       <c r="M189" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N189" s="3"/>
+    </row>
+    <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>187</v>
       </c>
@@ -21015,8 +21466,9 @@
       <c r="M190" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N190" s="3"/>
+    </row>
+    <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>188</v>
       </c>
@@ -21057,8 +21509,9 @@
       <c r="M191" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N191" s="3"/>
+    </row>
+    <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>189</v>
       </c>
@@ -21099,8 +21552,9 @@
       <c r="M192" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N192" s="3"/>
+    </row>
+    <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>190</v>
       </c>
@@ -21141,8 +21595,9 @@
       <c r="M193" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N193" s="3"/>
+    </row>
+    <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>191</v>
       </c>
@@ -21183,8 +21638,9 @@
       <c r="M194" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N194" s="3"/>
+    </row>
+    <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>192</v>
       </c>
@@ -21225,8 +21681,9 @@
       <c r="M195" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N195" s="3"/>
+    </row>
+    <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>193</v>
       </c>
@@ -21267,8 +21724,9 @@
       <c r="M196" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N196" s="3"/>
+    </row>
+    <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>194</v>
       </c>
@@ -21309,8 +21767,9 @@
       <c r="M197" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N197" s="3"/>
+    </row>
+    <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>195</v>
       </c>
@@ -21351,8 +21810,9 @@
       <c r="M198" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N198" s="3"/>
+    </row>
+    <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>196</v>
       </c>
@@ -21392,8 +21852,9 @@
       <c r="M199" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N199" s="3"/>
+    </row>
+    <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>197</v>
       </c>
@@ -21433,8 +21894,9 @@
       <c r="M200" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N200" s="3"/>
+    </row>
+    <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>198</v>
       </c>
@@ -21475,8 +21937,9 @@
       <c r="M201" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N201" s="3"/>
+    </row>
+    <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>199</v>
       </c>
@@ -21517,8 +21980,9 @@
       <c r="M202" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N202" s="3"/>
+    </row>
+    <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>200</v>
       </c>
@@ -21559,8 +22023,9 @@
       <c r="M203" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N203" s="3"/>
+    </row>
+    <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>201</v>
       </c>
@@ -21601,8 +22066,9 @@
       <c r="M204" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N204" s="3"/>
+    </row>
+    <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>202</v>
       </c>
@@ -21643,8 +22109,9 @@
       <c r="M205" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N205" s="3"/>
+    </row>
+    <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>203</v>
       </c>
@@ -21685,8 +22152,9 @@
       <c r="M206" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N206" s="3"/>
+    </row>
+    <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>204</v>
       </c>
@@ -21727,8 +22195,9 @@
       <c r="M207" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N207" s="3"/>
+    </row>
+    <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>205</v>
       </c>
@@ -21769,8 +22238,9 @@
       <c r="M208" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N208" s="3"/>
+    </row>
+    <row r="209" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>206</v>
       </c>
@@ -21811,8 +22281,9 @@
       <c r="M209" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N209" s="3"/>
+    </row>
+    <row r="210" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>207</v>
       </c>
@@ -21853,8 +22324,9 @@
       <c r="M210" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N210" s="3"/>
+    </row>
+    <row r="211" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>208</v>
       </c>
@@ -21895,8 +22367,9 @@
       <c r="M211" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N211" s="3"/>
+    </row>
+    <row r="212" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>209</v>
       </c>
@@ -21937,8 +22410,9 @@
       <c r="M212" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N212" s="3"/>
+    </row>
+    <row r="213" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>210</v>
       </c>
@@ -21979,8 +22453,9 @@
       <c r="M213" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N213" s="3"/>
+    </row>
+    <row r="214" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>211</v>
       </c>
@@ -22020,8 +22495,9 @@
       <c r="M214" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N214" s="3"/>
+    </row>
+    <row r="215" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>212</v>
       </c>
@@ -22061,8 +22537,9 @@
       <c r="M215" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N215" s="3"/>
+    </row>
+    <row r="216" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>213</v>
       </c>
@@ -22103,8 +22580,9 @@
       <c r="M216" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N216" s="3"/>
+    </row>
+    <row r="217" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>214</v>
       </c>
@@ -22145,8 +22623,9 @@
       <c r="M217" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N217" s="3"/>
+    </row>
+    <row r="218" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>215</v>
       </c>
@@ -22187,8 +22666,9 @@
       <c r="M218" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N218" s="3"/>
+    </row>
+    <row r="219" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>216</v>
       </c>
@@ -22229,8 +22709,9 @@
       <c r="M219" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N219" s="3"/>
+    </row>
+    <row r="220" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>217</v>
       </c>
@@ -22271,8 +22752,9 @@
       <c r="M220" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N220" s="3"/>
+    </row>
+    <row r="221" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>218</v>
       </c>
@@ -22313,8 +22795,9 @@
       <c r="M221" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N221" s="3"/>
+    </row>
+    <row r="222" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>219</v>
       </c>
@@ -22355,8 +22838,9 @@
       <c r="M222" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N222" s="3"/>
+    </row>
+    <row r="223" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>220</v>
       </c>
@@ -22397,8 +22881,9 @@
       <c r="M223" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N223" s="3"/>
+    </row>
+    <row r="224" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -22439,8 +22924,9 @@
       <c r="M224" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N224" s="3"/>
+    </row>
+    <row r="225" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>222</v>
       </c>
@@ -22481,8 +22967,9 @@
       <c r="M225" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N225" s="3"/>
+    </row>
+    <row r="226" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>223</v>
       </c>
@@ -22523,8 +23010,9 @@
       <c r="M226" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N226" s="3"/>
+    </row>
+    <row r="227" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>224</v>
       </c>
@@ -22565,8 +23053,9 @@
       <c r="M227" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N227" s="3"/>
+    </row>
+    <row r="228" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>225</v>
       </c>
@@ -22607,8 +23096,9 @@
       <c r="M228" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N228" s="3"/>
+    </row>
+    <row r="229" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>226</v>
       </c>
@@ -22648,8 +23138,9 @@
       <c r="M229" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N229" s="3"/>
+    </row>
+    <row r="230" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>227</v>
       </c>
@@ -22689,8 +23180,9 @@
       <c r="M230" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N230" s="3"/>
+    </row>
+    <row r="231" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>228</v>
       </c>
@@ -22731,8 +23223,9 @@
       <c r="M231" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N231" s="3"/>
+    </row>
+    <row r="232" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>229</v>
       </c>
@@ -22773,8 +23266,9 @@
       <c r="M232" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N232" s="3"/>
+    </row>
+    <row r="233" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>230</v>
       </c>
@@ -22815,8 +23309,9 @@
       <c r="M233" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N233" s="3"/>
+    </row>
+    <row r="234" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>231</v>
       </c>
@@ -22857,8 +23352,9 @@
       <c r="M234" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N234" s="3"/>
+    </row>
+    <row r="235" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>232</v>
       </c>
@@ -22899,8 +23395,9 @@
       <c r="M235" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N235" s="3"/>
+    </row>
+    <row r="236" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>233</v>
       </c>
@@ -22941,8 +23438,9 @@
       <c r="M236" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N236" s="3"/>
+    </row>
+    <row r="237" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>234</v>
       </c>
@@ -22983,8 +23481,9 @@
       <c r="M237" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N237" s="3"/>
+    </row>
+    <row r="238" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>235</v>
       </c>
@@ -23025,8 +23524,9 @@
       <c r="M238" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N238" s="3"/>
+    </row>
+    <row r="239" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>236</v>
       </c>
@@ -23067,8 +23567,9 @@
       <c r="M239" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N239" s="3"/>
+    </row>
+    <row r="240" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>237</v>
       </c>
@@ -23109,8 +23610,9 @@
       <c r="M240" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N240" s="3"/>
+    </row>
+    <row r="241" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>238</v>
       </c>
@@ -23151,8 +23653,9 @@
       <c r="M241" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N241" s="3"/>
+    </row>
+    <row r="242" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>239</v>
       </c>
@@ -23193,8 +23696,9 @@
       <c r="M242" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N242" s="3"/>
+    </row>
+    <row r="243" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>240</v>
       </c>
@@ -23235,8 +23739,9 @@
       <c r="M243" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N243" s="3"/>
+    </row>
+    <row r="244" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>241</v>
       </c>
@@ -23276,8 +23781,9 @@
       <c r="M244" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N244" s="3"/>
+    </row>
+    <row r="245" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>242</v>
       </c>
@@ -23317,8 +23823,9 @@
       <c r="M245" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N245" s="3"/>
+    </row>
+    <row r="246" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>243</v>
       </c>
@@ -23359,8 +23866,9 @@
       <c r="M246" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N246" s="3"/>
+    </row>
+    <row r="247" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>244</v>
       </c>
@@ -23401,8 +23909,9 @@
       <c r="M247" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N247" s="3"/>
+    </row>
+    <row r="248" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>245</v>
       </c>
@@ -23443,8 +23952,9 @@
       <c r="M248" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N248" s="3"/>
+    </row>
+    <row r="249" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>246</v>
       </c>
@@ -23485,8 +23995,9 @@
       <c r="M249" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N249" s="3"/>
+    </row>
+    <row r="250" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>247</v>
       </c>
@@ -23527,8 +24038,9 @@
       <c r="M250" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N250" s="3"/>
+    </row>
+    <row r="251" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>248</v>
       </c>
@@ -23569,8 +24081,9 @@
       <c r="M251" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N251" s="3"/>
+    </row>
+    <row r="252" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>249</v>
       </c>
@@ -23611,8 +24124,9 @@
       <c r="M252" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N252" s="3"/>
+    </row>
+    <row r="253" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>250</v>
       </c>
@@ -23653,8 +24167,9 @@
       <c r="M253" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N253" s="3"/>
+    </row>
+    <row r="254" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>251</v>
       </c>
@@ -23695,8 +24210,9 @@
       <c r="M254" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N254" s="3"/>
+    </row>
+    <row r="255" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>252</v>
       </c>
@@ -23737,8 +24253,9 @@
       <c r="M255" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N255" s="3"/>
+    </row>
+    <row r="256" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>253</v>
       </c>
@@ -23779,8 +24296,9 @@
       <c r="M256" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N256" s="3"/>
+    </row>
+    <row r="257" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>254</v>
       </c>
@@ -23821,8 +24339,9 @@
       <c r="M257" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N257" s="3"/>
+    </row>
+    <row r="258" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>255</v>
       </c>
@@ -23863,8 +24382,9 @@
       <c r="M258" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N258" s="3"/>
+    </row>
+    <row r="259" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>256</v>
       </c>
@@ -23904,8 +24424,9 @@
       <c r="M259" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N259" s="3"/>
+    </row>
+    <row r="260" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>257</v>
       </c>
@@ -23945,8 +24466,9 @@
       <c r="M260" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N260" s="3"/>
+    </row>
+    <row r="261" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>258</v>
       </c>
@@ -23987,8 +24509,9 @@
       <c r="M261" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N261" s="3"/>
+    </row>
+    <row r="262" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>259</v>
       </c>
@@ -24029,8 +24552,9 @@
       <c r="M262" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N262" s="3"/>
+    </row>
+    <row r="263" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>260</v>
       </c>
@@ -24071,8 +24595,9 @@
       <c r="M263" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N263" s="3"/>
+    </row>
+    <row r="264" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>261</v>
       </c>
@@ -24113,8 +24638,9 @@
       <c r="M264" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N264" s="3"/>
+    </row>
+    <row r="265" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>262</v>
       </c>
@@ -24155,8 +24681,9 @@
       <c r="M265" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N265" s="3"/>
+    </row>
+    <row r="266" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>263</v>
       </c>
@@ -24197,8 +24724,9 @@
       <c r="M266" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N266" s="3"/>
+    </row>
+    <row r="267" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>264</v>
       </c>
@@ -24239,8 +24767,9 @@
       <c r="M267" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N267" s="3"/>
+    </row>
+    <row r="268" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>265</v>
       </c>
@@ -24281,8 +24810,9 @@
       <c r="M268" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N268" s="3"/>
+    </row>
+    <row r="269" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>266</v>
       </c>
@@ -24323,8 +24853,9 @@
       <c r="M269" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N269" s="3"/>
+    </row>
+    <row r="270" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>267</v>
       </c>
@@ -24365,8 +24896,9 @@
       <c r="M270" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N270" s="3"/>
+    </row>
+    <row r="271" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>268</v>
       </c>
@@ -24407,8 +24939,9 @@
       <c r="M271" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N271" s="3"/>
+    </row>
+    <row r="272" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>269</v>
       </c>
@@ -24449,8 +24982,9 @@
       <c r="M272" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N272" s="3"/>
+    </row>
+    <row r="273" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>270</v>
       </c>
@@ -24491,8 +25025,9 @@
       <c r="M273" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N273" s="3"/>
+    </row>
+    <row r="274" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>271</v>
       </c>
@@ -24532,8 +25067,9 @@
       <c r="M274" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N274" s="3"/>
+    </row>
+    <row r="275" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>272</v>
       </c>
@@ -24573,8 +25109,9 @@
       <c r="M275" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N275" s="3"/>
+    </row>
+    <row r="276" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>273</v>
       </c>
@@ -24615,8 +25152,9 @@
       <c r="M276" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N276" s="3"/>
+    </row>
+    <row r="277" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>274</v>
       </c>
@@ -24657,8 +25195,9 @@
       <c r="M277" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N277" s="3"/>
+    </row>
+    <row r="278" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>275</v>
       </c>
@@ -24699,8 +25238,9 @@
       <c r="M278" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N278" s="3"/>
+    </row>
+    <row r="279" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>276</v>
       </c>
@@ -24741,8 +25281,9 @@
       <c r="M279" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N279" s="3"/>
+    </row>
+    <row r="280" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>277</v>
       </c>
@@ -24783,8 +25324,9 @@
       <c r="M280" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N280" s="3"/>
+    </row>
+    <row r="281" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>278</v>
       </c>
@@ -24825,8 +25367,9 @@
       <c r="M281" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N281" s="3"/>
+    </row>
+    <row r="282" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>279</v>
       </c>
@@ -24867,8 +25410,9 @@
       <c r="M282" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N282" s="3"/>
+    </row>
+    <row r="283" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>280</v>
       </c>
@@ -24909,8 +25453,9 @@
       <c r="M283" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N283" s="3"/>
+    </row>
+    <row r="284" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>281</v>
       </c>
@@ -24951,8 +25496,9 @@
       <c r="M284" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N284" s="3"/>
+    </row>
+    <row r="285" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>282</v>
       </c>
@@ -24993,8 +25539,9 @@
       <c r="M285" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N285" s="3"/>
+    </row>
+    <row r="286" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>283</v>
       </c>
@@ -25035,8 +25582,9 @@
       <c r="M286" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N286" s="3"/>
+    </row>
+    <row r="287" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>284</v>
       </c>
@@ -25077,8 +25625,9 @@
       <c r="M287" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N287" s="3"/>
+    </row>
+    <row r="288" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>285</v>
       </c>
@@ -25119,8 +25668,9 @@
       <c r="M288" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N288" s="3"/>
+    </row>
+    <row r="289" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>286</v>
       </c>
@@ -25160,8 +25710,9 @@
       <c r="M289" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N289" s="3"/>
+    </row>
+    <row r="290" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>287</v>
       </c>
@@ -25201,8 +25752,9 @@
       <c r="M290" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N290" s="3"/>
+    </row>
+    <row r="291" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>288</v>
       </c>
@@ -25243,8 +25795,9 @@
       <c r="M291" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N291" s="3"/>
+    </row>
+    <row r="292" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>289</v>
       </c>
@@ -25285,8 +25838,9 @@
       <c r="M292" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N292" s="3"/>
+    </row>
+    <row r="293" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>290</v>
       </c>
@@ -25327,8 +25881,9 @@
       <c r="M293" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N293" s="3"/>
+    </row>
+    <row r="294" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>291</v>
       </c>
@@ -25369,8 +25924,9 @@
       <c r="M294" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N294" s="3"/>
+    </row>
+    <row r="295" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>292</v>
       </c>
@@ -25411,8 +25967,9 @@
       <c r="M295" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N295" s="3"/>
+    </row>
+    <row r="296" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>293</v>
       </c>
@@ -25453,8 +26010,9 @@
       <c r="M296" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N296" s="3"/>
+    </row>
+    <row r="297" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>294</v>
       </c>
@@ -25495,8 +26053,9 @@
       <c r="M297" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N297" s="3"/>
+    </row>
+    <row r="298" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>295</v>
       </c>
@@ -25537,8 +26096,9 @@
       <c r="M298" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N298" s="3"/>
+    </row>
+    <row r="299" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>296</v>
       </c>
@@ -25579,8 +26139,9 @@
       <c r="M299" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N299" s="3"/>
+    </row>
+    <row r="300" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>297</v>
       </c>
@@ -25621,8 +26182,9 @@
       <c r="M300" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N300" s="3"/>
+    </row>
+    <row r="301" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>298</v>
       </c>
@@ -25663,8 +26225,9 @@
       <c r="M301" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N301" s="3"/>
+    </row>
+    <row r="302" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>299</v>
       </c>
@@ -25705,8 +26268,9 @@
       <c r="M302" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N302" s="3"/>
+    </row>
+    <row r="303" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>300</v>
       </c>
@@ -25747,8 +26311,9 @@
       <c r="M303" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N303" s="3"/>
+    </row>
+    <row r="304" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>301</v>
       </c>
@@ -25788,8 +26353,9 @@
       <c r="M304" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N304" s="3"/>
+    </row>
+    <row r="305" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>302</v>
       </c>
@@ -25829,8 +26395,9 @@
       <c r="M305" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N305" s="3"/>
+    </row>
+    <row r="306" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>303</v>
       </c>
@@ -25871,8 +26438,9 @@
       <c r="M306" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N306" s="3"/>
+    </row>
+    <row r="307" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>304</v>
       </c>
@@ -25913,8 +26481,9 @@
       <c r="M307" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N307" s="3"/>
+    </row>
+    <row r="308" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>305</v>
       </c>
@@ -25955,8 +26524,9 @@
       <c r="M308" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N308" s="3"/>
+    </row>
+    <row r="309" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>306</v>
       </c>
@@ -25997,8 +26567,9 @@
       <c r="M309" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N309" s="3"/>
+    </row>
+    <row r="310" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>307</v>
       </c>
@@ -26039,8 +26610,9 @@
       <c r="M310" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N310" s="3"/>
+    </row>
+    <row r="311" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>308</v>
       </c>
@@ -26081,8 +26653,9 @@
       <c r="M311" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N311" s="3"/>
+    </row>
+    <row r="312" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>309</v>
       </c>
@@ -26123,8 +26696,9 @@
       <c r="M312" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N312" s="3"/>
+    </row>
+    <row r="313" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>310</v>
       </c>
@@ -26165,8 +26739,9 @@
       <c r="M313" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N313" s="3"/>
+    </row>
+    <row r="314" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>311</v>
       </c>
@@ -26207,8 +26782,9 @@
       <c r="M314" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N314" s="3"/>
+    </row>
+    <row r="315" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>312</v>
       </c>
@@ -26249,8 +26825,9 @@
       <c r="M315" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N315" s="3"/>
+    </row>
+    <row r="316" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>313</v>
       </c>
@@ -26291,8 +26868,9 @@
       <c r="M316" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N316" s="3"/>
+    </row>
+    <row r="317" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>314</v>
       </c>
@@ -26333,8 +26911,9 @@
       <c r="M317" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N317" s="3"/>
+    </row>
+    <row r="318" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>315</v>
       </c>
@@ -26375,6 +26954,7 @@
       <c r="M318" s="3">
         <v>0.2</v>
       </c>
+      <c r="N318" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/excluWp.专属武器.xlsx
+++ b/Excel/镇魂街/excluWp.专属武器.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D218AB-765A-4BBD-B5A8-9E3ED0272119}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A6EA9-ED57-4511-AFA3-D6CA1C5D38CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7342" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7084" uniqueCount="278">
   <si>
     <t>sheet名</t>
   </si>
@@ -1020,6 +1020,14 @@
     <t>烈风螳螂专属武器效果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>PSkillLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -51353,10 +51361,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N318"/>
+  <dimension ref="A1:O318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="K307" sqref="K307"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51370,12 +51378,13 @@
     <col min="9" max="9" width="20.25" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="26.375" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>121</v>
       </c>
@@ -51410,16 +51419,19 @@
         <v>92</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -51454,16 +51466,19 @@
         <v>179</v>
       </c>
       <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>112</v>
       </c>
@@ -51498,16 +51513,19 @@
         <v>93</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -51541,15 +51559,16 @@
       <c r="K4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>100</v>
       </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -51583,15 +51602,16 @@
       <c r="K5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>1000</v>
       </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -51626,15 +51646,18 @@
       <c r="K6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -51669,15 +51692,16 @@
       <c r="K7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>0.15</v>
       </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -51712,15 +51736,16 @@
       <c r="K8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>0.15</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -51755,15 +51780,16 @@
       <c r="K9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>0.15</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -51798,15 +51824,16 @@
       <c r="K10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>0.15</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -51841,15 +51868,16 @@
       <c r="K11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>0.15</v>
       </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -51884,15 +51912,16 @@
       <c r="K12" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>0.15</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -51927,15 +51956,16 @@
       <c r="K13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>0.2</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -51970,15 +52000,16 @@
       <c r="K14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>0.2</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -52013,15 +52044,16 @@
       <c r="K15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3"/>
+      <c r="M15" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>0.2</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -52056,15 +52088,16 @@
       <c r="K16" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>0.2</v>
       </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -52099,15 +52132,16 @@
       <c r="K17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>0.2</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -52142,15 +52176,16 @@
       <c r="K18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3"/>
+      <c r="M18" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>0.2</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -52184,15 +52219,16 @@
       <c r="K19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>100</v>
       </c>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -52226,15 +52262,16 @@
       <c r="K20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -52269,15 +52306,18 @@
       <c r="K21" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -52312,15 +52352,16 @@
       <c r="K22" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3"/>
+      <c r="M22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>0.15</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -52355,15 +52396,16 @@
       <c r="K23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>0.15</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -52398,15 +52440,16 @@
       <c r="K24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3"/>
+      <c r="M24" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>0.15</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -52441,15 +52484,16 @@
       <c r="K25" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>0.15</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -52484,15 +52528,16 @@
       <c r="K26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>0.15</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -52527,15 +52572,16 @@
       <c r="K27" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="3"/>
+      <c r="M27" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>0.15</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -52570,15 +52616,16 @@
       <c r="K28" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>0.2</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -52613,15 +52660,16 @@
       <c r="K29" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>0.2</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -52656,15 +52704,16 @@
       <c r="K30" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3"/>
+      <c r="M30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>0.2</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -52699,15 +52748,16 @@
       <c r="K31" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="3"/>
+      <c r="M31" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>0.2</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -52742,15 +52792,16 @@
       <c r="K32" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="3"/>
+      <c r="M32" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>0.2</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -52785,15 +52836,16 @@
       <c r="K33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="3"/>
+      <c r="M33" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>0.2</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -52827,15 +52879,16 @@
       <c r="K34" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="3"/>
+      <c r="M34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
         <v>100</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -52869,15 +52922,16 @@
       <c r="K35" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -52912,15 +52966,18 @@
       <c r="K36" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -52955,15 +53012,16 @@
       <c r="K37" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3"/>
+      <c r="M37" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>0.15</v>
       </c>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -52998,15 +53056,16 @@
       <c r="K38" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>0.15</v>
       </c>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -53041,15 +53100,16 @@
       <c r="K39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3"/>
+      <c r="M39" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M39" s="3">
+      <c r="N39" s="3">
         <v>0.15</v>
       </c>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -53084,15 +53144,16 @@
       <c r="K40" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3"/>
+      <c r="M40" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M40" s="3">
+      <c r="N40" s="3">
         <v>0.15</v>
       </c>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -53127,15 +53188,16 @@
       <c r="K41" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>0.15</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -53170,15 +53232,16 @@
       <c r="K42" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3"/>
+      <c r="M42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>0.15</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -53213,15 +53276,16 @@
       <c r="K43" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3"/>
+      <c r="M43" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>0.2</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -53256,15 +53320,16 @@
       <c r="K44" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3"/>
+      <c r="M44" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>0.2</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -53299,15 +53364,16 @@
       <c r="K45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3"/>
+      <c r="M45" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>0.2</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -53342,15 +53408,16 @@
       <c r="K46" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="3"/>
+      <c r="M46" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>0.2</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -53385,15 +53452,16 @@
       <c r="K47" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>0.2</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -53428,15 +53496,16 @@
       <c r="K48" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="3"/>
+      <c r="M48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>0.2</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -53470,15 +53539,16 @@
       <c r="K49" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="3"/>
+      <c r="M49" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -53512,15 +53582,16 @@
       <c r="K50" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="3"/>
+      <c r="M50" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M50" s="3">
+      <c r="N50" s="3">
         <v>1000</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -53555,15 +53626,18 @@
       <c r="K51" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -53598,15 +53672,16 @@
       <c r="K52" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="3"/>
+      <c r="M52" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>0.15</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -53641,15 +53716,16 @@
       <c r="K53" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M53" s="3">
+      <c r="N53" s="3">
         <v>0.15</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -53684,15 +53760,16 @@
       <c r="K54" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="3"/>
+      <c r="M54" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>0.15</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -53727,15 +53804,16 @@
       <c r="K55" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="3"/>
+      <c r="M55" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="M55" s="3">
+      <c r="N55" s="3">
         <v>0.3</v>
       </c>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -53770,15 +53848,16 @@
       <c r="K56" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="3"/>
+      <c r="M56" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M56" s="3">
+      <c r="N56" s="3">
         <v>0.15</v>
       </c>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -53813,15 +53892,16 @@
       <c r="K57" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L57" s="3"/>
+      <c r="M57" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>0.15</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -53856,15 +53936,16 @@
       <c r="K58" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="L58" s="3"/>
+      <c r="M58" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>0.2</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -53899,15 +53980,16 @@
       <c r="K59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>0.2</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -53942,15 +54024,16 @@
       <c r="K60" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="L60" s="3"/>
+      <c r="M60" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>0.2</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -53985,15 +54068,16 @@
       <c r="K61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="L61" s="3"/>
+      <c r="M61" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>0.4</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -54028,15 +54112,16 @@
       <c r="K62" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="L62" s="3"/>
+      <c r="M62" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>0.2</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -54071,15 +54156,16 @@
       <c r="K63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="L63" s="3"/>
+      <c r="M63" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M63" s="3">
+      <c r="N63" s="3">
         <v>0.2</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -54113,15 +54199,16 @@
       <c r="K64" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="3"/>
+      <c r="M64" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M64" s="3">
+      <c r="N64" s="3">
         <v>100</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -54155,15 +54242,16 @@
       <c r="K65" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="L65" s="3"/>
+      <c r="M65" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M65" s="3">
+      <c r="N65" s="3">
         <v>1000</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -54198,15 +54286,18 @@
       <c r="K66" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="M66" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -54241,15 +54332,16 @@
       <c r="K67" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="3"/>
+      <c r="M67" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M67" s="3">
+      <c r="N67" s="3">
         <v>0.15</v>
       </c>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -54284,15 +54376,16 @@
       <c r="K68" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="L68" s="3"/>
+      <c r="M68" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M68" s="3">
+      <c r="N68" s="3">
         <v>0.15</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -54327,15 +54420,16 @@
       <c r="K69" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L69" s="3"/>
+      <c r="M69" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M69" s="3">
+      <c r="N69" s="3">
         <v>0.15</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -54370,15 +54464,16 @@
       <c r="K70" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="L70" s="3"/>
+      <c r="M70" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>0.15</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -54413,15 +54508,16 @@
       <c r="K71" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M71" s="3">
+      <c r="N71" s="3">
         <v>0.15</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -54456,15 +54552,16 @@
       <c r="K72" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="L72" s="3"/>
+      <c r="M72" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>0.15</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -54499,15 +54596,16 @@
       <c r="K73" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="L73" s="3"/>
+      <c r="M73" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M73" s="3">
+      <c r="N73" s="3">
         <v>0.2</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -54542,15 +54640,16 @@
       <c r="K74" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="L74" s="3"/>
+      <c r="M74" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M74" s="3">
+      <c r="N74" s="3">
         <v>0.2</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -54585,15 +54684,16 @@
       <c r="K75" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="L75" s="3"/>
+      <c r="M75" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M75" s="3">
+      <c r="N75" s="3">
         <v>0.2</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -54628,15 +54728,16 @@
       <c r="K76" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="L76" s="3"/>
+      <c r="M76" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>0.2</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -54671,15 +54772,16 @@
       <c r="K77" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M77" s="3">
+      <c r="N77" s="3">
         <v>0.2</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -54714,15 +54816,16 @@
       <c r="K78" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="3"/>
+      <c r="M78" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M78" s="3">
+      <c r="N78" s="3">
         <v>0.2</v>
       </c>
-      <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -54756,15 +54859,16 @@
       <c r="K79" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L79" s="4" t="s">
+      <c r="L79" s="3"/>
+      <c r="M79" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M79" s="3">
+      <c r="N79" s="3">
         <v>100</v>
       </c>
-      <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -54798,15 +54902,16 @@
       <c r="K80" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L80" s="3"/>
+      <c r="M80" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M80" s="3">
+      <c r="N80" s="3">
         <v>1000</v>
       </c>
-      <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -54841,15 +54946,18 @@
       <c r="K81" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="N81" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -54884,15 +54992,16 @@
       <c r="K82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="L82" s="3"/>
+      <c r="M82" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M82" s="3">
+      <c r="N82" s="3">
         <v>0.15</v>
       </c>
-      <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -54927,15 +55036,16 @@
       <c r="K83" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="L83" s="3"/>
+      <c r="M83" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>0.15</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -54970,15 +55080,16 @@
       <c r="K84" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="L84" s="3"/>
+      <c r="M84" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M84" s="3">
+      <c r="N84" s="3">
         <v>0.15</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -55013,15 +55124,16 @@
       <c r="K85" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="L85" s="3"/>
+      <c r="M85" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="M85" s="3">
+      <c r="N85" s="3">
         <v>0.3</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -55056,15 +55168,16 @@
       <c r="K86" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L86" s="3"/>
+      <c r="M86" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M86" s="3">
+      <c r="N86" s="3">
         <v>0.15</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -55099,15 +55212,16 @@
       <c r="K87" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L87" s="3"/>
+      <c r="M87" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M87" s="3">
+      <c r="N87" s="3">
         <v>0.15</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -55142,15 +55256,16 @@
       <c r="K88" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L88" s="4" t="s">
+      <c r="L88" s="3"/>
+      <c r="M88" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M88" s="3">
+      <c r="N88" s="3">
         <v>0.2</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -55185,15 +55300,16 @@
       <c r="K89" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="3"/>
+      <c r="M89" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>0.2</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -55228,15 +55344,16 @@
       <c r="K90" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="L90" s="3"/>
+      <c r="M90" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M90" s="3">
+      <c r="N90" s="3">
         <v>0.2</v>
       </c>
-      <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -55271,15 +55388,16 @@
       <c r="K91" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="L91" s="3"/>
+      <c r="M91" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>0.4</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -55314,15 +55432,16 @@
       <c r="K92" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="L92" s="3"/>
+      <c r="M92" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M92" s="3">
+      <c r="N92" s="3">
         <v>0.2</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -55357,15 +55476,16 @@
       <c r="K93" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="L93" s="3"/>
+      <c r="M93" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M93" s="3">
+      <c r="N93" s="3">
         <v>0.2</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -55399,15 +55519,16 @@
       <c r="K94" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="L94" s="3"/>
+      <c r="M94" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -55441,15 +55562,16 @@
       <c r="K95" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M95" s="3">
+      <c r="N95" s="3">
         <v>1000</v>
       </c>
-      <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -55484,15 +55606,18 @@
       <c r="K96" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="L96" s="4">
+        <v>1</v>
+      </c>
+      <c r="M96" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M96" s="3" t="s">
+      <c r="N96" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -55527,15 +55652,16 @@
       <c r="K97" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L97" s="4" t="s">
+      <c r="L97" s="3"/>
+      <c r="M97" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M97" s="3">
+      <c r="N97" s="3">
         <v>0.15</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -55570,15 +55696,16 @@
       <c r="K98" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L98" s="4" t="s">
+      <c r="L98" s="3"/>
+      <c r="M98" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M98" s="3">
+      <c r="N98" s="3">
         <v>0.21</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -55613,15 +55740,16 @@
       <c r="K99" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L99" s="4" t="s">
+      <c r="L99" s="3"/>
+      <c r="M99" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M99" s="3">
+      <c r="N99" s="3">
         <v>0.15</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -55656,15 +55784,16 @@
       <c r="K100" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L100" s="4" t="s">
+      <c r="L100" s="3"/>
+      <c r="M100" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>0.15</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -55699,15 +55828,16 @@
       <c r="K101" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3"/>
+      <c r="M101" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>0.21</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -55742,15 +55872,16 @@
       <c r="K102" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L102" s="4" t="s">
+      <c r="L102" s="3"/>
+      <c r="M102" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>0.15</v>
       </c>
-      <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -55785,15 +55916,16 @@
       <c r="K103" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="L103" s="3"/>
+      <c r="M103" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M103" s="3">
+      <c r="N103" s="3">
         <v>0.2</v>
       </c>
-      <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -55828,15 +55960,16 @@
       <c r="K104" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L104" s="4" t="s">
+      <c r="L104" s="3"/>
+      <c r="M104" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M104" s="3">
+      <c r="N104" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -55871,15 +56004,16 @@
       <c r="K105" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L105" s="4" t="s">
+      <c r="L105" s="3"/>
+      <c r="M105" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M105" s="3">
+      <c r="N105" s="3">
         <v>0.2</v>
       </c>
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -55914,15 +56048,16 @@
       <c r="K106" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L106" s="4" t="s">
+      <c r="L106" s="3"/>
+      <c r="M106" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M106" s="3">
+      <c r="N106" s="3">
         <v>0.2</v>
       </c>
-      <c r="N106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -55957,15 +56092,16 @@
       <c r="K107" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L107" s="3" t="s">
+      <c r="L107" s="3"/>
+      <c r="M107" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M107" s="3">
+      <c r="N107" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N107" s="3"/>
-    </row>
-    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -56000,15 +56136,16 @@
       <c r="K108" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L108" s="4" t="s">
+      <c r="L108" s="3"/>
+      <c r="M108" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M108" s="3">
+      <c r="N108" s="3">
         <v>0.2</v>
       </c>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -56042,15 +56179,16 @@
       <c r="K109" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L109" s="4" t="s">
+      <c r="L109" s="3"/>
+      <c r="M109" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M109" s="3">
+      <c r="N109" s="3">
         <v>100</v>
       </c>
-      <c r="N109" s="3"/>
-    </row>
-    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -56084,15 +56222,16 @@
       <c r="K110" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L110" s="4" t="s">
+      <c r="L110" s="3"/>
+      <c r="M110" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M110" s="3">
+      <c r="N110" s="3">
         <v>1000</v>
       </c>
-      <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -56127,15 +56266,18 @@
       <c r="K111" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="L111" s="4" t="s">
+      <c r="L111" s="4">
+        <v>1</v>
+      </c>
+      <c r="M111" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M111" s="3" t="s">
+      <c r="N111" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -56170,15 +56312,16 @@
       <c r="K112" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L112" s="4" t="s">
+      <c r="L112" s="3"/>
+      <c r="M112" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M112" s="3">
+      <c r="N112" s="3">
         <v>0.15</v>
       </c>
-      <c r="N112" s="3"/>
-    </row>
-    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -56213,15 +56356,16 @@
       <c r="K113" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L113" s="3" t="s">
+      <c r="L113" s="3"/>
+      <c r="M113" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M113" s="3">
+      <c r="N113" s="3">
         <v>0.21</v>
       </c>
-      <c r="N113" s="3"/>
-    </row>
-    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -56256,15 +56400,16 @@
       <c r="K114" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L114" s="4" t="s">
+      <c r="L114" s="3"/>
+      <c r="M114" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M114" s="3">
+      <c r="N114" s="3">
         <v>0.15</v>
       </c>
-      <c r="N114" s="3"/>
-    </row>
-    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -56299,15 +56444,16 @@
       <c r="K115" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L115" s="4" t="s">
+      <c r="L115" s="3"/>
+      <c r="M115" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M115" s="3">
+      <c r="N115" s="3">
         <v>0.15</v>
       </c>
-      <c r="N115" s="3"/>
-    </row>
-    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O115" s="3"/>
+    </row>
+    <row r="116" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -56342,15 +56488,16 @@
       <c r="K116" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L116" s="4" t="s">
+      <c r="L116" s="3"/>
+      <c r="M116" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M116" s="3">
+      <c r="N116" s="3">
         <v>0.21</v>
       </c>
-      <c r="N116" s="3"/>
-    </row>
-    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O116" s="3"/>
+    </row>
+    <row r="117" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -56385,15 +56532,16 @@
       <c r="K117" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L117" s="4" t="s">
+      <c r="L117" s="3"/>
+      <c r="M117" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="M117" s="3">
+      <c r="N117" s="3">
         <v>0.15</v>
       </c>
-      <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -56428,15 +56576,16 @@
       <c r="K118" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L118" s="4" t="s">
+      <c r="L118" s="3"/>
+      <c r="M118" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M118" s="3">
+      <c r="N118" s="3">
         <v>0.2</v>
       </c>
-      <c r="N118" s="3"/>
-    </row>
-    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -56471,15 +56620,16 @@
       <c r="K119" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="L119" s="3"/>
+      <c r="M119" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M119" s="3">
+      <c r="N119" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N119" s="3"/>
-    </row>
-    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -56514,15 +56664,16 @@
       <c r="K120" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L120" s="4" t="s">
+      <c r="L120" s="3"/>
+      <c r="M120" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M120" s="3">
+      <c r="N120" s="3">
         <v>0.2</v>
       </c>
-      <c r="N120" s="3"/>
-    </row>
-    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -56557,15 +56708,16 @@
       <c r="K121" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L121" s="4" t="s">
+      <c r="L121" s="3"/>
+      <c r="M121" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M121" s="3">
+      <c r="N121" s="3">
         <v>0.2</v>
       </c>
-      <c r="N121" s="3"/>
-    </row>
-    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -56600,15 +56752,16 @@
       <c r="K122" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L122" s="4" t="s">
+      <c r="L122" s="3"/>
+      <c r="M122" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M122" s="3">
+      <c r="N122" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N122" s="3"/>
-    </row>
-    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -56643,15 +56796,16 @@
       <c r="K123" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L123" s="4" t="s">
+      <c r="L123" s="3"/>
+      <c r="M123" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="M123" s="3">
+      <c r="N123" s="3">
         <v>0.2</v>
       </c>
-      <c r="N123" s="3"/>
-    </row>
-    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O123" s="3"/>
+    </row>
+    <row r="124" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -56685,15 +56839,16 @@
       <c r="K124" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L124" s="4" t="s">
+      <c r="L124" s="3"/>
+      <c r="M124" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M124" s="3">
+      <c r="N124" s="3">
         <v>100</v>
       </c>
-      <c r="N124" s="3"/>
-    </row>
-    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -56727,15 +56882,16 @@
       <c r="K125" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L125" s="3" t="s">
+      <c r="L125" s="3"/>
+      <c r="M125" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M125" s="3">
+      <c r="N125" s="3">
         <v>1000</v>
       </c>
-      <c r="N125" s="3"/>
-    </row>
-    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O125" s="3"/>
+    </row>
+    <row r="126" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -56770,15 +56926,18 @@
       <c r="K126" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L126" s="4" t="s">
+      <c r="L126" s="4">
+        <v>1</v>
+      </c>
+      <c r="M126" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M126" s="3" t="s">
+      <c r="N126" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N126" s="3"/>
-    </row>
-    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -56813,15 +56972,16 @@
       <c r="K127" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L127" s="4" t="s">
+      <c r="L127" s="3"/>
+      <c r="M127" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M127" s="3">
+      <c r="N127" s="3">
         <v>0.15</v>
       </c>
-      <c r="N127" s="3"/>
-    </row>
-    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O127" s="3"/>
+    </row>
+    <row r="128" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -56856,15 +57016,16 @@
       <c r="K128" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L128" s="4" t="s">
+      <c r="L128" s="3"/>
+      <c r="M128" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M128" s="3">
+      <c r="N128" s="3">
         <v>0.15</v>
       </c>
-      <c r="N128" s="3"/>
-    </row>
-    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O128" s="3"/>
+    </row>
+    <row r="129" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -56899,15 +57060,16 @@
       <c r="K129" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L129" s="4" t="s">
+      <c r="L129" s="3"/>
+      <c r="M129" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M129" s="3">
+      <c r="N129" s="3">
         <v>0.15</v>
       </c>
-      <c r="N129" s="3"/>
-    </row>
-    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -56942,15 +57104,16 @@
       <c r="K130" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L130" s="3" t="s">
+      <c r="L130" s="3"/>
+      <c r="M130" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M130" s="3">
+      <c r="N130" s="3">
         <v>0.15</v>
       </c>
-      <c r="N130" s="3"/>
-    </row>
-    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -56985,15 +57148,16 @@
       <c r="K131" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L131" s="3" t="s">
+      <c r="L131" s="3"/>
+      <c r="M131" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M131" s="3">
+      <c r="N131" s="3">
         <v>0.15</v>
       </c>
-      <c r="N131" s="3"/>
-    </row>
-    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -57028,15 +57192,16 @@
       <c r="K132" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L132" s="3" t="s">
+      <c r="L132" s="3"/>
+      <c r="M132" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M132" s="3">
+      <c r="N132" s="3">
         <v>0.15</v>
       </c>
-      <c r="N132" s="3"/>
-    </row>
-    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O132" s="3"/>
+    </row>
+    <row r="133" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -57071,15 +57236,16 @@
       <c r="K133" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L133" s="3" t="s">
+      <c r="L133" s="3"/>
+      <c r="M133" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M133" s="3">
+      <c r="N133" s="3">
         <v>0.2</v>
       </c>
-      <c r="N133" s="3"/>
-    </row>
-    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O133" s="3"/>
+    </row>
+    <row r="134" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -57114,15 +57280,16 @@
       <c r="K134" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L134" s="3" t="s">
+      <c r="L134" s="3"/>
+      <c r="M134" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M134" s="3">
+      <c r="N134" s="3">
         <v>0.2</v>
       </c>
-      <c r="N134" s="3"/>
-    </row>
-    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O134" s="3"/>
+    </row>
+    <row r="135" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -57157,15 +57324,16 @@
       <c r="K135" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L135" s="3" t="s">
+      <c r="L135" s="3"/>
+      <c r="M135" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M135" s="3">
+      <c r="N135" s="3">
         <v>0.2</v>
       </c>
-      <c r="N135" s="3"/>
-    </row>
-    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O135" s="3"/>
+    </row>
+    <row r="136" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -57200,15 +57368,16 @@
       <c r="K136" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L136" s="3" t="s">
+      <c r="L136" s="3"/>
+      <c r="M136" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M136" s="3">
+      <c r="N136" s="3">
         <v>0.2</v>
       </c>
-      <c r="N136" s="3"/>
-    </row>
-    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O136" s="3"/>
+    </row>
+    <row r="137" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -57243,15 +57412,16 @@
       <c r="K137" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L137" s="3" t="s">
+      <c r="L137" s="3"/>
+      <c r="M137" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M137" s="3">
+      <c r="N137" s="3">
         <v>0.2</v>
       </c>
-      <c r="N137" s="3"/>
-    </row>
-    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O137" s="3"/>
+    </row>
+    <row r="138" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -57286,15 +57456,16 @@
       <c r="K138" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L138" s="3" t="s">
+      <c r="L138" s="3"/>
+      <c r="M138" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M138" s="3">
+      <c r="N138" s="3">
         <v>0.2</v>
       </c>
-      <c r="N138" s="3"/>
-    </row>
-    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O138" s="3"/>
+    </row>
+    <row r="139" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -57328,15 +57499,16 @@
       <c r="K139" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L139" s="3" t="s">
+      <c r="L139" s="3"/>
+      <c r="M139" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M139" s="3">
+      <c r="N139" s="3">
         <v>100</v>
       </c>
-      <c r="N139" s="3"/>
-    </row>
-    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O139" s="3"/>
+    </row>
+    <row r="140" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -57370,15 +57542,16 @@
       <c r="K140" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L140" s="3" t="s">
+      <c r="L140" s="3"/>
+      <c r="M140" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M140" s="3">
+      <c r="N140" s="3">
         <v>1000</v>
       </c>
-      <c r="N140" s="3"/>
-    </row>
-    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O140" s="3"/>
+    </row>
+    <row r="141" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -57413,15 +57586,18 @@
       <c r="K141" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L141" s="3" t="s">
-        <v>163</v>
+      <c r="L141" s="4">
+        <v>1</v>
       </c>
       <c r="M141" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N141" s="3"/>
-    </row>
-    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N141" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -57456,15 +57632,16 @@
       <c r="K142" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L142" s="3" t="s">
+      <c r="L142" s="3"/>
+      <c r="M142" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M142" s="3">
+      <c r="N142" s="3">
         <v>0.15</v>
       </c>
-      <c r="N142" s="3"/>
-    </row>
-    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -57499,15 +57676,16 @@
       <c r="K143" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L143" s="3" t="s">
+      <c r="L143" s="3"/>
+      <c r="M143" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M143" s="3">
+      <c r="N143" s="3">
         <v>0.15</v>
       </c>
-      <c r="N143" s="3"/>
-    </row>
-    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O143" s="3"/>
+    </row>
+    <row r="144" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -57542,15 +57720,16 @@
       <c r="K144" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L144" s="3" t="s">
+      <c r="L144" s="3"/>
+      <c r="M144" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M144" s="3">
+      <c r="N144" s="3">
         <v>0.15</v>
       </c>
-      <c r="N144" s="3"/>
-    </row>
-    <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O144" s="3"/>
+    </row>
+    <row r="145" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -57585,15 +57764,16 @@
       <c r="K145" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L145" s="3" t="s">
+      <c r="L145" s="3"/>
+      <c r="M145" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M145" s="3">
+      <c r="N145" s="3">
         <v>0.21</v>
       </c>
-      <c r="N145" s="3"/>
-    </row>
-    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -57628,15 +57808,16 @@
       <c r="K146" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L146" s="3" t="s">
+      <c r="L146" s="3"/>
+      <c r="M146" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M146" s="3">
+      <c r="N146" s="3">
         <v>0.15</v>
       </c>
-      <c r="N146" s="3"/>
-    </row>
-    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O146" s="3"/>
+    </row>
+    <row r="147" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -57671,15 +57852,16 @@
       <c r="K147" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L147" s="3" t="s">
+      <c r="L147" s="3"/>
+      <c r="M147" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M147" s="3">
+      <c r="N147" s="3">
         <v>0.15</v>
       </c>
-      <c r="N147" s="3"/>
-    </row>
-    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -57714,15 +57896,16 @@
       <c r="K148" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L148" s="3" t="s">
+      <c r="L148" s="3"/>
+      <c r="M148" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M148" s="3">
+      <c r="N148" s="3">
         <v>0.2</v>
       </c>
-      <c r="N148" s="3"/>
-    </row>
-    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -57757,15 +57940,16 @@
       <c r="K149" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L149" s="3" t="s">
+      <c r="L149" s="3"/>
+      <c r="M149" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M149" s="3">
+      <c r="N149" s="3">
         <v>0.2</v>
       </c>
-      <c r="N149" s="3"/>
-    </row>
-    <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -57800,15 +57984,16 @@
       <c r="K150" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L150" s="3" t="s">
+      <c r="L150" s="3"/>
+      <c r="M150" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M150" s="3">
+      <c r="N150" s="3">
         <v>0.2</v>
       </c>
-      <c r="N150" s="3"/>
-    </row>
-    <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -57843,15 +58028,16 @@
       <c r="K151" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L151" s="3" t="s">
+      <c r="L151" s="3"/>
+      <c r="M151" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M151" s="3">
+      <c r="N151" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N151" s="3"/>
-    </row>
-    <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -57886,15 +58072,16 @@
       <c r="K152" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L152" s="3" t="s">
+      <c r="L152" s="3"/>
+      <c r="M152" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M152" s="3">
+      <c r="N152" s="3">
         <v>0.2</v>
       </c>
-      <c r="N152" s="3"/>
-    </row>
-    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O152" s="3"/>
+    </row>
+    <row r="153" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -57929,15 +58116,16 @@
       <c r="K153" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L153" s="3" t="s">
+      <c r="L153" s="3"/>
+      <c r="M153" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M153" s="3">
+      <c r="N153" s="3">
         <v>0.2</v>
       </c>
-      <c r="N153" s="3"/>
-    </row>
-    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -57971,15 +58159,16 @@
       <c r="K154" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L154" s="3" t="s">
+      <c r="L154" s="3"/>
+      <c r="M154" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M154" s="3">
+      <c r="N154" s="3">
         <v>100</v>
       </c>
-      <c r="N154" s="3"/>
-    </row>
-    <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -58013,15 +58202,16 @@
       <c r="K155" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L155" s="3" t="s">
+      <c r="L155" s="3"/>
+      <c r="M155" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M155" s="3">
+      <c r="N155" s="3">
         <v>1000</v>
       </c>
-      <c r="N155" s="3"/>
-    </row>
-    <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -58056,15 +58246,18 @@
       <c r="K156" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L156" s="3" t="s">
-        <v>163</v>
+      <c r="L156" s="4">
+        <v>1</v>
       </c>
       <c r="M156" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N156" s="3"/>
-    </row>
-    <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N156" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>154</v>
       </c>
@@ -58099,15 +58292,16 @@
       <c r="K157" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L157" s="3" t="s">
+      <c r="L157" s="3"/>
+      <c r="M157" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M157" s="3">
+      <c r="N157" s="3">
         <v>0.15</v>
       </c>
-      <c r="N157" s="3"/>
-    </row>
-    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>155</v>
       </c>
@@ -58142,15 +58336,16 @@
       <c r="K158" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L158" s="3" t="s">
+      <c r="L158" s="3"/>
+      <c r="M158" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M158" s="3">
+      <c r="N158" s="3">
         <v>0.15</v>
       </c>
-      <c r="N158" s="3"/>
-    </row>
-    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O158" s="3"/>
+    </row>
+    <row r="159" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>156</v>
       </c>
@@ -58185,15 +58380,16 @@
       <c r="K159" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L159" s="3" t="s">
+      <c r="L159" s="3"/>
+      <c r="M159" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M159" s="3">
+      <c r="N159" s="3">
         <v>0.15</v>
       </c>
-      <c r="N159" s="3"/>
-    </row>
-    <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>157</v>
       </c>
@@ -58228,15 +58424,16 @@
       <c r="K160" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L160" s="3" t="s">
+      <c r="L160" s="3"/>
+      <c r="M160" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M160" s="3">
+      <c r="N160" s="3">
         <v>0.15</v>
       </c>
-      <c r="N160" s="3"/>
-    </row>
-    <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O160" s="3"/>
+    </row>
+    <row r="161" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>158</v>
       </c>
@@ -58271,15 +58468,16 @@
       <c r="K161" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L161" s="3" t="s">
+      <c r="L161" s="3"/>
+      <c r="M161" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M161" s="3">
+      <c r="N161" s="3">
         <v>0.15</v>
       </c>
-      <c r="N161" s="3"/>
-    </row>
-    <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>159</v>
       </c>
@@ -58314,15 +58512,16 @@
       <c r="K162" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L162" s="3" t="s">
+      <c r="L162" s="3"/>
+      <c r="M162" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M162" s="3">
+      <c r="N162" s="3">
         <v>0.15</v>
       </c>
-      <c r="N162" s="3"/>
-    </row>
-    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O162" s="3"/>
+    </row>
+    <row r="163" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>160</v>
       </c>
@@ -58357,15 +58556,16 @@
       <c r="K163" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L163" s="3" t="s">
+      <c r="L163" s="3"/>
+      <c r="M163" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M163" s="3">
+      <c r="N163" s="3">
         <v>0.2</v>
       </c>
-      <c r="N163" s="3"/>
-    </row>
-    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O163" s="3"/>
+    </row>
+    <row r="164" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>161</v>
       </c>
@@ -58400,15 +58600,16 @@
       <c r="K164" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L164" s="3" t="s">
+      <c r="L164" s="3"/>
+      <c r="M164" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M164" s="3">
+      <c r="N164" s="3">
         <v>0.2</v>
       </c>
-      <c r="N164" s="3"/>
-    </row>
-    <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>162</v>
       </c>
@@ -58443,15 +58644,16 @@
       <c r="K165" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L165" s="3" t="s">
+      <c r="L165" s="3"/>
+      <c r="M165" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M165" s="3">
+      <c r="N165" s="3">
         <v>0.2</v>
       </c>
-      <c r="N165" s="3"/>
-    </row>
-    <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>163</v>
       </c>
@@ -58486,15 +58688,16 @@
       <c r="K166" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L166" s="3" t="s">
+      <c r="L166" s="3"/>
+      <c r="M166" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M166" s="3">
+      <c r="N166" s="3">
         <v>0.2</v>
       </c>
-      <c r="N166" s="3"/>
-    </row>
-    <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>164</v>
       </c>
@@ -58529,15 +58732,16 @@
       <c r="K167" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L167" s="3" t="s">
+      <c r="L167" s="3"/>
+      <c r="M167" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M167" s="3">
+      <c r="N167" s="3">
         <v>0.2</v>
       </c>
-      <c r="N167" s="3"/>
-    </row>
-    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O167" s="3"/>
+    </row>
+    <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>165</v>
       </c>
@@ -58572,15 +58776,16 @@
       <c r="K168" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L168" s="3" t="s">
+      <c r="L168" s="3"/>
+      <c r="M168" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M168" s="3">
+      <c r="N168" s="3">
         <v>0.2</v>
       </c>
-      <c r="N168" s="3"/>
-    </row>
-    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O168" s="3"/>
+    </row>
+    <row r="169" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>166</v>
       </c>
@@ -58614,15 +58819,16 @@
       <c r="K169" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L169" s="3" t="s">
+      <c r="L169" s="3"/>
+      <c r="M169" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M169" s="3">
+      <c r="N169" s="3">
         <v>100</v>
       </c>
-      <c r="N169" s="3"/>
-    </row>
-    <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O169" s="3"/>
+    </row>
+    <row r="170" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>167</v>
       </c>
@@ -58656,15 +58862,16 @@
       <c r="K170" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L170" s="3" t="s">
+      <c r="L170" s="3"/>
+      <c r="M170" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M170" s="3">
+      <c r="N170" s="3">
         <v>1000</v>
       </c>
-      <c r="N170" s="3"/>
-    </row>
-    <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O170" s="3"/>
+    </row>
+    <row r="171" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>168</v>
       </c>
@@ -58699,15 +58906,18 @@
       <c r="K171" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="L171" s="3" t="s">
-        <v>163</v>
+      <c r="L171" s="4">
+        <v>1</v>
       </c>
       <c r="M171" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N171" s="3"/>
-    </row>
-    <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N171" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O171" s="3"/>
+    </row>
+    <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>169</v>
       </c>
@@ -58742,15 +58952,16 @@
       <c r="K172" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L172" s="3" t="s">
+      <c r="L172" s="3"/>
+      <c r="M172" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M172" s="3">
+      <c r="N172" s="3">
         <v>0.15</v>
       </c>
-      <c r="N172" s="3"/>
-    </row>
-    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O172" s="3"/>
+    </row>
+    <row r="173" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>170</v>
       </c>
@@ -58785,15 +58996,16 @@
       <c r="K173" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L173" s="3" t="s">
+      <c r="L173" s="3"/>
+      <c r="M173" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M173" s="3">
+      <c r="N173" s="3">
         <v>0.15</v>
       </c>
-      <c r="N173" s="3"/>
-    </row>
-    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O173" s="3"/>
+    </row>
+    <row r="174" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>171</v>
       </c>
@@ -58828,15 +59040,16 @@
       <c r="K174" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L174" s="3" t="s">
+      <c r="L174" s="3"/>
+      <c r="M174" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M174" s="3">
+      <c r="N174" s="3">
         <v>0.15</v>
       </c>
-      <c r="N174" s="3"/>
-    </row>
-    <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O174" s="3"/>
+    </row>
+    <row r="175" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>172</v>
       </c>
@@ -58871,15 +59084,16 @@
       <c r="K175" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L175" s="3" t="s">
+      <c r="L175" s="3"/>
+      <c r="M175" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M175" s="3">
+      <c r="N175" s="3">
         <v>0.15</v>
       </c>
-      <c r="N175" s="3"/>
-    </row>
-    <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O175" s="3"/>
+    </row>
+    <row r="176" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>173</v>
       </c>
@@ -58914,15 +59128,16 @@
       <c r="K176" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L176" s="3" t="s">
+      <c r="L176" s="3"/>
+      <c r="M176" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M176" s="3">
+      <c r="N176" s="3">
         <v>0.15</v>
       </c>
-      <c r="N176" s="3"/>
-    </row>
-    <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O176" s="3"/>
+    </row>
+    <row r="177" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>174</v>
       </c>
@@ -58957,15 +59172,16 @@
       <c r="K177" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L177" s="3" t="s">
+      <c r="L177" s="3"/>
+      <c r="M177" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M177" s="3">
+      <c r="N177" s="3">
         <v>0.15</v>
       </c>
-      <c r="N177" s="3"/>
-    </row>
-    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O177" s="3"/>
+    </row>
+    <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>175</v>
       </c>
@@ -59000,15 +59216,16 @@
       <c r="K178" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L178" s="3" t="s">
+      <c r="L178" s="3"/>
+      <c r="M178" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M178" s="3">
+      <c r="N178" s="3">
         <v>0.2</v>
       </c>
-      <c r="N178" s="3"/>
-    </row>
-    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O178" s="3"/>
+    </row>
+    <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>176</v>
       </c>
@@ -59043,15 +59260,16 @@
       <c r="K179" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L179" s="3" t="s">
+      <c r="L179" s="3"/>
+      <c r="M179" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M179" s="3">
+      <c r="N179" s="3">
         <v>0.2</v>
       </c>
-      <c r="N179" s="3"/>
-    </row>
-    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O179" s="3"/>
+    </row>
+    <row r="180" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>177</v>
       </c>
@@ -59086,15 +59304,16 @@
       <c r="K180" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L180" s="3" t="s">
+      <c r="L180" s="3"/>
+      <c r="M180" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M180" s="3">
+      <c r="N180" s="3">
         <v>0.2</v>
       </c>
-      <c r="N180" s="3"/>
-    </row>
-    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O180" s="3"/>
+    </row>
+    <row r="181" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>178</v>
       </c>
@@ -59129,15 +59348,16 @@
       <c r="K181" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L181" s="3" t="s">
+      <c r="L181" s="3"/>
+      <c r="M181" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M181" s="3">
+      <c r="N181" s="3">
         <v>0.2</v>
       </c>
-      <c r="N181" s="3"/>
-    </row>
-    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O181" s="3"/>
+    </row>
+    <row r="182" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>179</v>
       </c>
@@ -59172,15 +59392,16 @@
       <c r="K182" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L182" s="3" t="s">
+      <c r="L182" s="3"/>
+      <c r="M182" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M182" s="3">
+      <c r="N182" s="3">
         <v>0.2</v>
       </c>
-      <c r="N182" s="3"/>
-    </row>
-    <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O182" s="3"/>
+    </row>
+    <row r="183" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>180</v>
       </c>
@@ -59215,15 +59436,16 @@
       <c r="K183" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L183" s="3" t="s">
+      <c r="L183" s="3"/>
+      <c r="M183" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M183" s="3">
+      <c r="N183" s="3">
         <v>0.2</v>
       </c>
-      <c r="N183" s="3"/>
-    </row>
-    <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O183" s="3"/>
+    </row>
+    <row r="184" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -59257,15 +59479,16 @@
       <c r="K184" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L184" s="3" t="s">
+      <c r="L184" s="3"/>
+      <c r="M184" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M184" s="3">
+      <c r="N184" s="3">
         <v>100</v>
       </c>
-      <c r="N184" s="3"/>
-    </row>
-    <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O184" s="3"/>
+    </row>
+    <row r="185" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>182</v>
       </c>
@@ -59299,15 +59522,16 @@
       <c r="K185" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L185" s="3" t="s">
+      <c r="L185" s="3"/>
+      <c r="M185" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M185" s="3">
+      <c r="N185" s="3">
         <v>1000</v>
       </c>
-      <c r="N185" s="3"/>
-    </row>
-    <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O185" s="3"/>
+    </row>
+    <row r="186" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>183</v>
       </c>
@@ -59342,15 +59566,18 @@
       <c r="K186" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L186" s="3" t="s">
-        <v>163</v>
+      <c r="L186" s="4">
+        <v>1</v>
       </c>
       <c r="M186" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N186" s="3"/>
-    </row>
-    <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N186" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O186" s="3"/>
+    </row>
+    <row r="187" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>184</v>
       </c>
@@ -59385,15 +59612,16 @@
       <c r="K187" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L187" s="3" t="s">
+      <c r="L187" s="3"/>
+      <c r="M187" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M187" s="3">
+      <c r="N187" s="3">
         <v>0.15</v>
       </c>
-      <c r="N187" s="3"/>
-    </row>
-    <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O187" s="3"/>
+    </row>
+    <row r="188" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>185</v>
       </c>
@@ -59428,15 +59656,16 @@
       <c r="K188" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L188" s="3" t="s">
+      <c r="L188" s="3"/>
+      <c r="M188" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M188" s="3">
+      <c r="N188" s="3">
         <v>0.15</v>
       </c>
-      <c r="N188" s="3"/>
-    </row>
-    <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O188" s="3"/>
+    </row>
+    <row r="189" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>186</v>
       </c>
@@ -59471,15 +59700,16 @@
       <c r="K189" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L189" s="3" t="s">
+      <c r="L189" s="3"/>
+      <c r="M189" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M189" s="3">
+      <c r="N189" s="3">
         <v>0.15</v>
       </c>
-      <c r="N189" s="3"/>
-    </row>
-    <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O189" s="3"/>
+    </row>
+    <row r="190" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>187</v>
       </c>
@@ -59514,15 +59744,16 @@
       <c r="K190" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L190" s="3" t="s">
+      <c r="L190" s="3"/>
+      <c r="M190" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M190" s="3">
+      <c r="N190" s="3">
         <v>0.3</v>
       </c>
-      <c r="N190" s="3"/>
-    </row>
-    <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O190" s="3"/>
+    </row>
+    <row r="191" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>188</v>
       </c>
@@ -59557,15 +59788,16 @@
       <c r="K191" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L191" s="3" t="s">
+      <c r="L191" s="3"/>
+      <c r="M191" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M191" s="3">
+      <c r="N191" s="3">
         <v>0.15</v>
       </c>
-      <c r="N191" s="3"/>
-    </row>
-    <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O191" s="3"/>
+    </row>
+    <row r="192" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>189</v>
       </c>
@@ -59600,15 +59832,16 @@
       <c r="K192" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L192" s="3" t="s">
+      <c r="L192" s="3"/>
+      <c r="M192" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M192" s="3">
+      <c r="N192" s="3">
         <v>0.15</v>
       </c>
-      <c r="N192" s="3"/>
-    </row>
-    <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O192" s="3"/>
+    </row>
+    <row r="193" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>190</v>
       </c>
@@ -59643,15 +59876,16 @@
       <c r="K193" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L193" s="3" t="s">
+      <c r="L193" s="3"/>
+      <c r="M193" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M193" s="3">
+      <c r="N193" s="3">
         <v>0.2</v>
       </c>
-      <c r="N193" s="3"/>
-    </row>
-    <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O193" s="3"/>
+    </row>
+    <row r="194" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>191</v>
       </c>
@@ -59686,15 +59920,16 @@
       <c r="K194" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L194" s="3" t="s">
+      <c r="L194" s="3"/>
+      <c r="M194" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M194" s="3">
+      <c r="N194" s="3">
         <v>0.2</v>
       </c>
-      <c r="N194" s="3"/>
-    </row>
-    <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O194" s="3"/>
+    </row>
+    <row r="195" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>192</v>
       </c>
@@ -59729,15 +59964,16 @@
       <c r="K195" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L195" s="3" t="s">
+      <c r="L195" s="3"/>
+      <c r="M195" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M195" s="3">
+      <c r="N195" s="3">
         <v>0.2</v>
       </c>
-      <c r="N195" s="3"/>
-    </row>
-    <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O195" s="3"/>
+    </row>
+    <row r="196" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>193</v>
       </c>
@@ -59772,15 +60008,16 @@
       <c r="K196" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L196" s="3" t="s">
+      <c r="L196" s="3"/>
+      <c r="M196" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M196" s="3">
+      <c r="N196" s="3">
         <v>0.4</v>
       </c>
-      <c r="N196" s="3"/>
-    </row>
-    <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O196" s="3"/>
+    </row>
+    <row r="197" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>194</v>
       </c>
@@ -59815,15 +60052,16 @@
       <c r="K197" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L197" s="3" t="s">
+      <c r="L197" s="3"/>
+      <c r="M197" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M197" s="3">
+      <c r="N197" s="3">
         <v>0.2</v>
       </c>
-      <c r="N197" s="3"/>
-    </row>
-    <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O197" s="3"/>
+    </row>
+    <row r="198" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>195</v>
       </c>
@@ -59858,15 +60096,16 @@
       <c r="K198" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L198" s="3" t="s">
+      <c r="L198" s="3"/>
+      <c r="M198" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M198" s="3">
+      <c r="N198" s="3">
         <v>0.2</v>
       </c>
-      <c r="N198" s="3"/>
-    </row>
-    <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O198" s="3"/>
+    </row>
+    <row r="199" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>196</v>
       </c>
@@ -59900,15 +60139,16 @@
       <c r="K199" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L199" s="3" t="s">
+      <c r="L199" s="3"/>
+      <c r="M199" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M199" s="3">
+      <c r="N199" s="3">
         <v>100</v>
       </c>
-      <c r="N199" s="3"/>
-    </row>
-    <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O199" s="3"/>
+    </row>
+    <row r="200" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>197</v>
       </c>
@@ -59942,15 +60182,16 @@
       <c r="K200" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L200" s="3" t="s">
+      <c r="L200" s="3"/>
+      <c r="M200" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M200" s="3">
+      <c r="N200" s="3">
         <v>1000</v>
       </c>
-      <c r="N200" s="3"/>
-    </row>
-    <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O200" s="3"/>
+    </row>
+    <row r="201" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>198</v>
       </c>
@@ -59985,15 +60226,18 @@
       <c r="K201" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="L201" s="3" t="s">
-        <v>163</v>
+      <c r="L201" s="4">
+        <v>1</v>
       </c>
       <c r="M201" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N201" s="3"/>
-    </row>
-    <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N201" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O201" s="3"/>
+    </row>
+    <row r="202" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>199</v>
       </c>
@@ -60028,15 +60272,16 @@
       <c r="K202" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L202" s="3" t="s">
+      <c r="L202" s="3"/>
+      <c r="M202" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M202" s="3">
+      <c r="N202" s="3">
         <v>0.15</v>
       </c>
-      <c r="N202" s="3"/>
-    </row>
-    <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O202" s="3"/>
+    </row>
+    <row r="203" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>200</v>
       </c>
@@ -60071,15 +60316,16 @@
       <c r="K203" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L203" s="3" t="s">
+      <c r="L203" s="3"/>
+      <c r="M203" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M203" s="3">
+      <c r="N203" s="3">
         <v>0.15</v>
       </c>
-      <c r="N203" s="3"/>
-    </row>
-    <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O203" s="3"/>
+    </row>
+    <row r="204" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>201</v>
       </c>
@@ -60114,15 +60360,16 @@
       <c r="K204" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L204" s="3" t="s">
+      <c r="L204" s="3"/>
+      <c r="M204" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M204" s="3">
+      <c r="N204" s="3">
         <v>0.15</v>
       </c>
-      <c r="N204" s="3"/>
-    </row>
-    <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O204" s="3"/>
+    </row>
+    <row r="205" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>202</v>
       </c>
@@ -60157,15 +60404,16 @@
       <c r="K205" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L205" s="3" t="s">
+      <c r="L205" s="3"/>
+      <c r="M205" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M205" s="3">
+      <c r="N205" s="3">
         <v>0.3</v>
       </c>
-      <c r="N205" s="3"/>
-    </row>
-    <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O205" s="3"/>
+    </row>
+    <row r="206" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>203</v>
       </c>
@@ -60200,15 +60448,16 @@
       <c r="K206" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L206" s="3" t="s">
+      <c r="L206" s="3"/>
+      <c r="M206" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M206" s="3">
+      <c r="N206" s="3">
         <v>0.15</v>
       </c>
-      <c r="N206" s="3"/>
-    </row>
-    <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O206" s="3"/>
+    </row>
+    <row r="207" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>204</v>
       </c>
@@ -60243,15 +60492,16 @@
       <c r="K207" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L207" s="3" t="s">
+      <c r="L207" s="3"/>
+      <c r="M207" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M207" s="3">
+      <c r="N207" s="3">
         <v>0.15</v>
       </c>
-      <c r="N207" s="3"/>
-    </row>
-    <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O207" s="3"/>
+    </row>
+    <row r="208" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>205</v>
       </c>
@@ -60286,15 +60536,16 @@
       <c r="K208" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L208" s="3" t="s">
+      <c r="L208" s="3"/>
+      <c r="M208" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M208" s="3">
+      <c r="N208" s="3">
         <v>0.2</v>
       </c>
-      <c r="N208" s="3"/>
-    </row>
-    <row r="209" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>206</v>
       </c>
@@ -60329,15 +60580,16 @@
       <c r="K209" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L209" s="3" t="s">
+      <c r="L209" s="3"/>
+      <c r="M209" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M209" s="3">
+      <c r="N209" s="3">
         <v>0.2</v>
       </c>
-      <c r="N209" s="3"/>
-    </row>
-    <row r="210" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O209" s="3"/>
+    </row>
+    <row r="210" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>207</v>
       </c>
@@ -60372,15 +60624,16 @@
       <c r="K210" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L210" s="3" t="s">
+      <c r="L210" s="3"/>
+      <c r="M210" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M210" s="3">
+      <c r="N210" s="3">
         <v>0.2</v>
       </c>
-      <c r="N210" s="3"/>
-    </row>
-    <row r="211" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O210" s="3"/>
+    </row>
+    <row r="211" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>208</v>
       </c>
@@ -60415,15 +60668,16 @@
       <c r="K211" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L211" s="3" t="s">
+      <c r="L211" s="3"/>
+      <c r="M211" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M211" s="3">
+      <c r="N211" s="3">
         <v>0.4</v>
       </c>
-      <c r="N211" s="3"/>
-    </row>
-    <row r="212" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>209</v>
       </c>
@@ -60458,15 +60712,16 @@
       <c r="K212" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L212" s="3" t="s">
+      <c r="L212" s="3"/>
+      <c r="M212" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M212" s="3">
+      <c r="N212" s="3">
         <v>0.2</v>
       </c>
-      <c r="N212" s="3"/>
-    </row>
-    <row r="213" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O212" s="3"/>
+    </row>
+    <row r="213" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>210</v>
       </c>
@@ -60501,15 +60756,16 @@
       <c r="K213" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L213" s="3" t="s">
+      <c r="L213" s="3"/>
+      <c r="M213" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M213" s="3">
+      <c r="N213" s="3">
         <v>0.2</v>
       </c>
-      <c r="N213" s="3"/>
-    </row>
-    <row r="214" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O213" s="3"/>
+    </row>
+    <row r="214" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>211</v>
       </c>
@@ -60543,15 +60799,16 @@
       <c r="K214" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L214" s="3" t="s">
+      <c r="L214" s="3"/>
+      <c r="M214" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M214" s="3">
+      <c r="N214" s="3">
         <v>100</v>
       </c>
-      <c r="N214" s="3"/>
-    </row>
-    <row r="215" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O214" s="3"/>
+    </row>
+    <row r="215" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>212</v>
       </c>
@@ -60585,15 +60842,16 @@
       <c r="K215" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L215" s="3" t="s">
+      <c r="L215" s="3"/>
+      <c r="M215" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M215" s="3">
+      <c r="N215" s="3">
         <v>1000</v>
       </c>
-      <c r="N215" s="3"/>
-    </row>
-    <row r="216" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O215" s="3"/>
+    </row>
+    <row r="216" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>213</v>
       </c>
@@ -60628,15 +60886,18 @@
       <c r="K216" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="L216" s="3" t="s">
-        <v>163</v>
+      <c r="L216" s="4">
+        <v>1</v>
       </c>
       <c r="M216" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N216" s="3"/>
-    </row>
-    <row r="217" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N216" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O216" s="3"/>
+    </row>
+    <row r="217" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>214</v>
       </c>
@@ -60671,15 +60932,16 @@
       <c r="K217" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L217" s="3" t="s">
+      <c r="L217" s="3"/>
+      <c r="M217" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M217" s="3">
+      <c r="N217" s="3">
         <v>0.15</v>
       </c>
-      <c r="N217" s="3"/>
-    </row>
-    <row r="218" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O217" s="3"/>
+    </row>
+    <row r="218" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>215</v>
       </c>
@@ -60714,15 +60976,16 @@
       <c r="K218" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L218" s="3" t="s">
+      <c r="L218" s="3"/>
+      <c r="M218" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M218" s="3">
+      <c r="N218" s="3">
         <v>0.15</v>
       </c>
-      <c r="N218" s="3"/>
-    </row>
-    <row r="219" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>216</v>
       </c>
@@ -60757,15 +61020,16 @@
       <c r="K219" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L219" s="3" t="s">
+      <c r="L219" s="3"/>
+      <c r="M219" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M219" s="3">
+      <c r="N219" s="3">
         <v>0.15</v>
       </c>
-      <c r="N219" s="3"/>
-    </row>
-    <row r="220" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O219" s="3"/>
+    </row>
+    <row r="220" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>217</v>
       </c>
@@ -60800,15 +61064,16 @@
       <c r="K220" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L220" s="3" t="s">
+      <c r="L220" s="3"/>
+      <c r="M220" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M220" s="3">
+      <c r="N220" s="3">
         <v>0.15</v>
       </c>
-      <c r="N220" s="3"/>
-    </row>
-    <row r="221" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O220" s="3"/>
+    </row>
+    <row r="221" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>218</v>
       </c>
@@ -60843,15 +61108,16 @@
       <c r="K221" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L221" s="3" t="s">
+      <c r="L221" s="3"/>
+      <c r="M221" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M221" s="3">
+      <c r="N221" s="3">
         <v>0.15</v>
       </c>
-      <c r="N221" s="3"/>
-    </row>
-    <row r="222" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O221" s="3"/>
+    </row>
+    <row r="222" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>219</v>
       </c>
@@ -60886,15 +61152,16 @@
       <c r="K222" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L222" s="3" t="s">
+      <c r="L222" s="3"/>
+      <c r="M222" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M222" s="3">
+      <c r="N222" s="3">
         <v>0.15</v>
       </c>
-      <c r="N222" s="3"/>
-    </row>
-    <row r="223" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O222" s="3"/>
+    </row>
+    <row r="223" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>220</v>
       </c>
@@ -60929,15 +61196,16 @@
       <c r="K223" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L223" s="3" t="s">
+      <c r="L223" s="3"/>
+      <c r="M223" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M223" s="3">
+      <c r="N223" s="3">
         <v>0.2</v>
       </c>
-      <c r="N223" s="3"/>
-    </row>
-    <row r="224" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O223" s="3"/>
+    </row>
+    <row r="224" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -60972,15 +61240,16 @@
       <c r="K224" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L224" s="3" t="s">
+      <c r="L224" s="3"/>
+      <c r="M224" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M224" s="3">
+      <c r="N224" s="3">
         <v>0.2</v>
       </c>
-      <c r="N224" s="3"/>
-    </row>
-    <row r="225" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O224" s="3"/>
+    </row>
+    <row r="225" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>222</v>
       </c>
@@ -61015,15 +61284,16 @@
       <c r="K225" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L225" s="3" t="s">
+      <c r="L225" s="3"/>
+      <c r="M225" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M225" s="3">
+      <c r="N225" s="3">
         <v>0.2</v>
       </c>
-      <c r="N225" s="3"/>
-    </row>
-    <row r="226" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O225" s="3"/>
+    </row>
+    <row r="226" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>223</v>
       </c>
@@ -61058,15 +61328,16 @@
       <c r="K226" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L226" s="3" t="s">
+      <c r="L226" s="3"/>
+      <c r="M226" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M226" s="3">
+      <c r="N226" s="3">
         <v>0.2</v>
       </c>
-      <c r="N226" s="3"/>
-    </row>
-    <row r="227" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O226" s="3"/>
+    </row>
+    <row r="227" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>224</v>
       </c>
@@ -61101,15 +61372,16 @@
       <c r="K227" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L227" s="3" t="s">
+      <c r="L227" s="3"/>
+      <c r="M227" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M227" s="3">
+      <c r="N227" s="3">
         <v>0.2</v>
       </c>
-      <c r="N227" s="3"/>
-    </row>
-    <row r="228" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O227" s="3"/>
+    </row>
+    <row r="228" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>225</v>
       </c>
@@ -61144,15 +61416,16 @@
       <c r="K228" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L228" s="3" t="s">
+      <c r="L228" s="3"/>
+      <c r="M228" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M228" s="3">
+      <c r="N228" s="3">
         <v>0.2</v>
       </c>
-      <c r="N228" s="3"/>
-    </row>
-    <row r="229" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O228" s="3"/>
+    </row>
+    <row r="229" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>226</v>
       </c>
@@ -61186,15 +61459,16 @@
       <c r="K229" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L229" s="3" t="s">
+      <c r="L229" s="3"/>
+      <c r="M229" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M229" s="3">
+      <c r="N229" s="3">
         <v>100</v>
       </c>
-      <c r="N229" s="3"/>
-    </row>
-    <row r="230" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O229" s="3"/>
+    </row>
+    <row r="230" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>227</v>
       </c>
@@ -61228,15 +61502,16 @@
       <c r="K230" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L230" s="3" t="s">
+      <c r="L230" s="3"/>
+      <c r="M230" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M230" s="3">
+      <c r="N230" s="3">
         <v>1000</v>
       </c>
-      <c r="N230" s="3"/>
-    </row>
-    <row r="231" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O230" s="3"/>
+    </row>
+    <row r="231" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>228</v>
       </c>
@@ -61271,15 +61546,18 @@
       <c r="K231" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="L231" s="3" t="s">
-        <v>163</v>
+      <c r="L231" s="4">
+        <v>1</v>
       </c>
       <c r="M231" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N231" s="3"/>
-    </row>
-    <row r="232" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N231" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O231" s="3"/>
+    </row>
+    <row r="232" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>229</v>
       </c>
@@ -61314,15 +61592,16 @@
       <c r="K232" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L232" s="3" t="s">
+      <c r="L232" s="3"/>
+      <c r="M232" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M232" s="3">
+      <c r="N232" s="3">
         <v>0.15</v>
       </c>
-      <c r="N232" s="3"/>
-    </row>
-    <row r="233" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O232" s="3"/>
+    </row>
+    <row r="233" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>230</v>
       </c>
@@ -61357,15 +61636,16 @@
       <c r="K233" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L233" s="3" t="s">
+      <c r="L233" s="3"/>
+      <c r="M233" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M233" s="3">
+      <c r="N233" s="3">
         <v>0.15</v>
       </c>
-      <c r="N233" s="3"/>
-    </row>
-    <row r="234" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O233" s="3"/>
+    </row>
+    <row r="234" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>231</v>
       </c>
@@ -61400,15 +61680,16 @@
       <c r="K234" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L234" s="3" t="s">
+      <c r="L234" s="3"/>
+      <c r="M234" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M234" s="3">
+      <c r="N234" s="3">
         <v>0.15</v>
       </c>
-      <c r="N234" s="3"/>
-    </row>
-    <row r="235" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O234" s="3"/>
+    </row>
+    <row r="235" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>232</v>
       </c>
@@ -61443,15 +61724,16 @@
       <c r="K235" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L235" s="3" t="s">
+      <c r="L235" s="3"/>
+      <c r="M235" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M235" s="3">
+      <c r="N235" s="3">
         <v>0.15</v>
       </c>
-      <c r="N235" s="3"/>
-    </row>
-    <row r="236" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O235" s="3"/>
+    </row>
+    <row r="236" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>233</v>
       </c>
@@ -61486,15 +61768,16 @@
       <c r="K236" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L236" s="3" t="s">
+      <c r="L236" s="3"/>
+      <c r="M236" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M236" s="3">
+      <c r="N236" s="3">
         <v>0.15</v>
       </c>
-      <c r="N236" s="3"/>
-    </row>
-    <row r="237" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O236" s="3"/>
+    </row>
+    <row r="237" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>234</v>
       </c>
@@ -61529,15 +61812,16 @@
       <c r="K237" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L237" s="3" t="s">
+      <c r="L237" s="3"/>
+      <c r="M237" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M237" s="3">
+      <c r="N237" s="3">
         <v>0.21</v>
       </c>
-      <c r="N237" s="3"/>
-    </row>
-    <row r="238" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O237" s="3"/>
+    </row>
+    <row r="238" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>235</v>
       </c>
@@ -61572,15 +61856,16 @@
       <c r="K238" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L238" s="3" t="s">
+      <c r="L238" s="3"/>
+      <c r="M238" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M238" s="3">
+      <c r="N238" s="3">
         <v>0.2</v>
       </c>
-      <c r="N238" s="3"/>
-    </row>
-    <row r="239" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O238" s="3"/>
+    </row>
+    <row r="239" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>236</v>
       </c>
@@ -61615,15 +61900,16 @@
       <c r="K239" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L239" s="3" t="s">
+      <c r="L239" s="3"/>
+      <c r="M239" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M239" s="3">
+      <c r="N239" s="3">
         <v>0.2</v>
       </c>
-      <c r="N239" s="3"/>
-    </row>
-    <row r="240" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O239" s="3"/>
+    </row>
+    <row r="240" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>237</v>
       </c>
@@ -61658,15 +61944,16 @@
       <c r="K240" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L240" s="3" t="s">
+      <c r="L240" s="3"/>
+      <c r="M240" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M240" s="3">
+      <c r="N240" s="3">
         <v>0.2</v>
       </c>
-      <c r="N240" s="3"/>
-    </row>
-    <row r="241" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O240" s="3"/>
+    </row>
+    <row r="241" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>238</v>
       </c>
@@ -61701,15 +61988,16 @@
       <c r="K241" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L241" s="3" t="s">
+      <c r="L241" s="3"/>
+      <c r="M241" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M241" s="3">
+      <c r="N241" s="3">
         <v>0.2</v>
       </c>
-      <c r="N241" s="3"/>
-    </row>
-    <row r="242" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O241" s="3"/>
+    </row>
+    <row r="242" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>239</v>
       </c>
@@ -61744,15 +62032,16 @@
       <c r="K242" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L242" s="3" t="s">
+      <c r="L242" s="3"/>
+      <c r="M242" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M242" s="3">
+      <c r="N242" s="3">
         <v>0.2</v>
       </c>
-      <c r="N242" s="3"/>
-    </row>
-    <row r="243" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O242" s="3"/>
+    </row>
+    <row r="243" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>240</v>
       </c>
@@ -61787,15 +62076,16 @@
       <c r="K243" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L243" s="3" t="s">
+      <c r="L243" s="3"/>
+      <c r="M243" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M243" s="3">
+      <c r="N243" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N243" s="3"/>
-    </row>
-    <row r="244" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O243" s="3"/>
+    </row>
+    <row r="244" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>241</v>
       </c>
@@ -61829,15 +62119,16 @@
       <c r="K244" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L244" s="3" t="s">
+      <c r="L244" s="3"/>
+      <c r="M244" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M244" s="3">
+      <c r="N244" s="3">
         <v>100</v>
       </c>
-      <c r="N244" s="3"/>
-    </row>
-    <row r="245" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O244" s="3"/>
+    </row>
+    <row r="245" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>242</v>
       </c>
@@ -61871,15 +62162,16 @@
       <c r="K245" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L245" s="3" t="s">
+      <c r="L245" s="3"/>
+      <c r="M245" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M245" s="3">
+      <c r="N245" s="3">
         <v>1000</v>
       </c>
-      <c r="N245" s="3"/>
-    </row>
-    <row r="246" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O245" s="3"/>
+    </row>
+    <row r="246" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>243</v>
       </c>
@@ -61914,15 +62206,18 @@
       <c r="K246" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="L246" s="3" t="s">
-        <v>163</v>
+      <c r="L246" s="4">
+        <v>1</v>
       </c>
       <c r="M246" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N246" s="3"/>
-    </row>
-    <row r="247" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N246" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O246" s="3"/>
+    </row>
+    <row r="247" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>244</v>
       </c>
@@ -61957,15 +62252,16 @@
       <c r="K247" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L247" s="3" t="s">
+      <c r="L247" s="3"/>
+      <c r="M247" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M247" s="3">
+      <c r="N247" s="3">
         <v>0.15</v>
       </c>
-      <c r="N247" s="3"/>
-    </row>
-    <row r="248" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O247" s="3"/>
+    </row>
+    <row r="248" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>245</v>
       </c>
@@ -62000,15 +62296,16 @@
       <c r="K248" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L248" s="3" t="s">
+      <c r="L248" s="3"/>
+      <c r="M248" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M248" s="3">
+      <c r="N248" s="3">
         <v>0.15</v>
       </c>
-      <c r="N248" s="3"/>
-    </row>
-    <row r="249" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O248" s="3"/>
+    </row>
+    <row r="249" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>246</v>
       </c>
@@ -62043,15 +62340,16 @@
       <c r="K249" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L249" s="3" t="s">
+      <c r="L249" s="3"/>
+      <c r="M249" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M249" s="3">
+      <c r="N249" s="3">
         <v>0.15</v>
       </c>
-      <c r="N249" s="3"/>
-    </row>
-    <row r="250" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O249" s="3"/>
+    </row>
+    <row r="250" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>247</v>
       </c>
@@ -62086,15 +62384,16 @@
       <c r="K250" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L250" s="3" t="s">
+      <c r="L250" s="3"/>
+      <c r="M250" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M250" s="3">
+      <c r="N250" s="3">
         <v>0.15</v>
       </c>
-      <c r="N250" s="3"/>
-    </row>
-    <row r="251" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O250" s="3"/>
+    </row>
+    <row r="251" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>248</v>
       </c>
@@ -62129,15 +62428,16 @@
       <c r="K251" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L251" s="3" t="s">
+      <c r="L251" s="3"/>
+      <c r="M251" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M251" s="3">
+      <c r="N251" s="3">
         <v>0.15</v>
       </c>
-      <c r="N251" s="3"/>
-    </row>
-    <row r="252" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O251" s="3"/>
+    </row>
+    <row r="252" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>249</v>
       </c>
@@ -62172,15 +62472,16 @@
       <c r="K252" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L252" s="3" t="s">
+      <c r="L252" s="3"/>
+      <c r="M252" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M252" s="3">
+      <c r="N252" s="3">
         <v>0.3</v>
       </c>
-      <c r="N252" s="3"/>
-    </row>
-    <row r="253" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O252" s="3"/>
+    </row>
+    <row r="253" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>250</v>
       </c>
@@ -62215,15 +62516,16 @@
       <c r="K253" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L253" s="3" t="s">
+      <c r="L253" s="3"/>
+      <c r="M253" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M253" s="3">
+      <c r="N253" s="3">
         <v>0.2</v>
       </c>
-      <c r="N253" s="3"/>
-    </row>
-    <row r="254" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O253" s="3"/>
+    </row>
+    <row r="254" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>251</v>
       </c>
@@ -62258,15 +62560,16 @@
       <c r="K254" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L254" s="3" t="s">
+      <c r="L254" s="3"/>
+      <c r="M254" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M254" s="3">
+      <c r="N254" s="3">
         <v>0.2</v>
       </c>
-      <c r="N254" s="3"/>
-    </row>
-    <row r="255" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O254" s="3"/>
+    </row>
+    <row r="255" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>252</v>
       </c>
@@ -62301,15 +62604,16 @@
       <c r="K255" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L255" s="3" t="s">
+      <c r="L255" s="3"/>
+      <c r="M255" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M255" s="3">
+      <c r="N255" s="3">
         <v>0.2</v>
       </c>
-      <c r="N255" s="3"/>
-    </row>
-    <row r="256" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O255" s="3"/>
+    </row>
+    <row r="256" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>253</v>
       </c>
@@ -62344,15 +62648,16 @@
       <c r="K256" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L256" s="3" t="s">
+      <c r="L256" s="3"/>
+      <c r="M256" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M256" s="3">
+      <c r="N256" s="3">
         <v>0.2</v>
       </c>
-      <c r="N256" s="3"/>
-    </row>
-    <row r="257" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O256" s="3"/>
+    </row>
+    <row r="257" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>254</v>
       </c>
@@ -62387,15 +62692,16 @@
       <c r="K257" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L257" s="3" t="s">
+      <c r="L257" s="3"/>
+      <c r="M257" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M257" s="3">
+      <c r="N257" s="3">
         <v>0.2</v>
       </c>
-      <c r="N257" s="3"/>
-    </row>
-    <row r="258" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O257" s="3"/>
+    </row>
+    <row r="258" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>255</v>
       </c>
@@ -62430,15 +62736,16 @@
       <c r="K258" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L258" s="3" t="s">
+      <c r="L258" s="3"/>
+      <c r="M258" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M258" s="3">
+      <c r="N258" s="3">
         <v>0.4</v>
       </c>
-      <c r="N258" s="3"/>
-    </row>
-    <row r="259" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O258" s="3"/>
+    </row>
+    <row r="259" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>256</v>
       </c>
@@ -62472,15 +62779,16 @@
       <c r="K259" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L259" s="3" t="s">
+      <c r="L259" s="3"/>
+      <c r="M259" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M259" s="3">
+      <c r="N259" s="3">
         <v>100</v>
       </c>
-      <c r="N259" s="3"/>
-    </row>
-    <row r="260" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O259" s="3"/>
+    </row>
+    <row r="260" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>257</v>
       </c>
@@ -62514,15 +62822,16 @@
       <c r="K260" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L260" s="3" t="s">
+      <c r="L260" s="3"/>
+      <c r="M260" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M260" s="3">
+      <c r="N260" s="3">
         <v>1000</v>
       </c>
-      <c r="N260" s="3"/>
-    </row>
-    <row r="261" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O260" s="3"/>
+    </row>
+    <row r="261" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>258</v>
       </c>
@@ -62557,15 +62866,18 @@
       <c r="K261" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="L261" s="3" t="s">
-        <v>163</v>
+      <c r="L261" s="4">
+        <v>1</v>
       </c>
       <c r="M261" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N261" s="3"/>
-    </row>
-    <row r="262" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N261" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O261" s="3"/>
+    </row>
+    <row r="262" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>259</v>
       </c>
@@ -62600,15 +62912,16 @@
       <c r="K262" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L262" s="3" t="s">
+      <c r="L262" s="3"/>
+      <c r="M262" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M262" s="3">
+      <c r="N262" s="3">
         <v>0.15</v>
       </c>
-      <c r="N262" s="3"/>
-    </row>
-    <row r="263" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O262" s="3"/>
+    </row>
+    <row r="263" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>260</v>
       </c>
@@ -62643,15 +62956,16 @@
       <c r="K263" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L263" s="3" t="s">
+      <c r="L263" s="3"/>
+      <c r="M263" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M263" s="3">
+      <c r="N263" s="3">
         <v>0.15</v>
       </c>
-      <c r="N263" s="3"/>
-    </row>
-    <row r="264" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O263" s="3"/>
+    </row>
+    <row r="264" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>261</v>
       </c>
@@ -62686,15 +63000,16 @@
       <c r="K264" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L264" s="3" t="s">
+      <c r="L264" s="3"/>
+      <c r="M264" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M264" s="3">
+      <c r="N264" s="3">
         <v>0.15</v>
       </c>
-      <c r="N264" s="3"/>
-    </row>
-    <row r="265" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O264" s="3"/>
+    </row>
+    <row r="265" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>262</v>
       </c>
@@ -62729,15 +63044,16 @@
       <c r="K265" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L265" s="3" t="s">
+      <c r="L265" s="3"/>
+      <c r="M265" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M265" s="3">
+      <c r="N265" s="3">
         <v>0.15</v>
       </c>
-      <c r="N265" s="3"/>
-    </row>
-    <row r="266" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O265" s="3"/>
+    </row>
+    <row r="266" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>263</v>
       </c>
@@ -62772,15 +63088,16 @@
       <c r="K266" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L266" s="3" t="s">
+      <c r="L266" s="3"/>
+      <c r="M266" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M266" s="3">
+      <c r="N266" s="3">
         <v>0.15</v>
       </c>
-      <c r="N266" s="3"/>
-    </row>
-    <row r="267" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O266" s="3"/>
+    </row>
+    <row r="267" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>264</v>
       </c>
@@ -62815,15 +63132,16 @@
       <c r="K267" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L267" s="3" t="s">
+      <c r="L267" s="3"/>
+      <c r="M267" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M267" s="3">
+      <c r="N267" s="3">
         <v>0.3</v>
       </c>
-      <c r="N267" s="3"/>
-    </row>
-    <row r="268" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O267" s="3"/>
+    </row>
+    <row r="268" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>265</v>
       </c>
@@ -62858,15 +63176,16 @@
       <c r="K268" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L268" s="3" t="s">
+      <c r="L268" s="3"/>
+      <c r="M268" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M268" s="3">
+      <c r="N268" s="3">
         <v>0.2</v>
       </c>
-      <c r="N268" s="3"/>
-    </row>
-    <row r="269" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O268" s="3"/>
+    </row>
+    <row r="269" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>266</v>
       </c>
@@ -62901,15 +63220,16 @@
       <c r="K269" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L269" s="3" t="s">
+      <c r="L269" s="3"/>
+      <c r="M269" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M269" s="3">
+      <c r="N269" s="3">
         <v>0.2</v>
       </c>
-      <c r="N269" s="3"/>
-    </row>
-    <row r="270" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O269" s="3"/>
+    </row>
+    <row r="270" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>267</v>
       </c>
@@ -62944,15 +63264,16 @@
       <c r="K270" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L270" s="3" t="s">
+      <c r="L270" s="3"/>
+      <c r="M270" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M270" s="3">
+      <c r="N270" s="3">
         <v>0.2</v>
       </c>
-      <c r="N270" s="3"/>
-    </row>
-    <row r="271" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O270" s="3"/>
+    </row>
+    <row r="271" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>268</v>
       </c>
@@ -62987,15 +63308,16 @@
       <c r="K271" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L271" s="3" t="s">
+      <c r="L271" s="3"/>
+      <c r="M271" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M271" s="3">
+      <c r="N271" s="3">
         <v>0.2</v>
       </c>
-      <c r="N271" s="3"/>
-    </row>
-    <row r="272" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O271" s="3"/>
+    </row>
+    <row r="272" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>269</v>
       </c>
@@ -63030,15 +63352,16 @@
       <c r="K272" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L272" s="3" t="s">
+      <c r="L272" s="3"/>
+      <c r="M272" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M272" s="3">
+      <c r="N272" s="3">
         <v>0.2</v>
       </c>
-      <c r="N272" s="3"/>
-    </row>
-    <row r="273" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O272" s="3"/>
+    </row>
+    <row r="273" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>270</v>
       </c>
@@ -63073,15 +63396,16 @@
       <c r="K273" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L273" s="3" t="s">
+      <c r="L273" s="3"/>
+      <c r="M273" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M273" s="3">
+      <c r="N273" s="3">
         <v>0.4</v>
       </c>
-      <c r="N273" s="3"/>
-    </row>
-    <row r="274" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O273" s="3"/>
+    </row>
+    <row r="274" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>271</v>
       </c>
@@ -63115,15 +63439,16 @@
       <c r="K274" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L274" s="3" t="s">
+      <c r="L274" s="3"/>
+      <c r="M274" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M274" s="3">
+      <c r="N274" s="3">
         <v>100</v>
       </c>
-      <c r="N274" s="3"/>
-    </row>
-    <row r="275" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O274" s="3"/>
+    </row>
+    <row r="275" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>272</v>
       </c>
@@ -63157,15 +63482,16 @@
       <c r="K275" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L275" s="3" t="s">
+      <c r="L275" s="3"/>
+      <c r="M275" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M275" s="3">
+      <c r="N275" s="3">
         <v>1000</v>
       </c>
-      <c r="N275" s="3"/>
-    </row>
-    <row r="276" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O275" s="3"/>
+    </row>
+    <row r="276" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>273</v>
       </c>
@@ -63200,15 +63526,18 @@
       <c r="K276" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="L276" s="3" t="s">
-        <v>163</v>
+      <c r="L276" s="4">
+        <v>1</v>
       </c>
       <c r="M276" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N276" s="3"/>
-    </row>
-    <row r="277" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N276" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O276" s="3"/>
+    </row>
+    <row r="277" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>274</v>
       </c>
@@ -63243,15 +63572,16 @@
       <c r="K277" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L277" s="3" t="s">
+      <c r="L277" s="3"/>
+      <c r="M277" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M277" s="3">
+      <c r="N277" s="3">
         <v>0.15</v>
       </c>
-      <c r="N277" s="3"/>
-    </row>
-    <row r="278" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O277" s="3"/>
+    </row>
+    <row r="278" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>275</v>
       </c>
@@ -63286,15 +63616,16 @@
       <c r="K278" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L278" s="3" t="s">
+      <c r="L278" s="3"/>
+      <c r="M278" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M278" s="3">
+      <c r="N278" s="3">
         <v>0.15</v>
       </c>
-      <c r="N278" s="3"/>
-    </row>
-    <row r="279" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O278" s="3"/>
+    </row>
+    <row r="279" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>276</v>
       </c>
@@ -63329,15 +63660,16 @@
       <c r="K279" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L279" s="3" t="s">
+      <c r="L279" s="3"/>
+      <c r="M279" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M279" s="3">
+      <c r="N279" s="3">
         <v>0.15</v>
       </c>
-      <c r="N279" s="3"/>
-    </row>
-    <row r="280" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O279" s="3"/>
+    </row>
+    <row r="280" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>277</v>
       </c>
@@ -63372,15 +63704,16 @@
       <c r="K280" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L280" s="3" t="s">
+      <c r="L280" s="3"/>
+      <c r="M280" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M280" s="3">
+      <c r="N280" s="3">
         <v>0.15</v>
       </c>
-      <c r="N280" s="3"/>
-    </row>
-    <row r="281" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O280" s="3"/>
+    </row>
+    <row r="281" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>278</v>
       </c>
@@ -63415,15 +63748,16 @@
       <c r="K281" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L281" s="3" t="s">
+      <c r="L281" s="3"/>
+      <c r="M281" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M281" s="3">
+      <c r="N281" s="3">
         <v>0.15</v>
       </c>
-      <c r="N281" s="3"/>
-    </row>
-    <row r="282" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O281" s="3"/>
+    </row>
+    <row r="282" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>279</v>
       </c>
@@ -63458,15 +63792,16 @@
       <c r="K282" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L282" s="3" t="s">
+      <c r="L282" s="3"/>
+      <c r="M282" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M282" s="3">
+      <c r="N282" s="3">
         <v>0.15</v>
       </c>
-      <c r="N282" s="3"/>
-    </row>
-    <row r="283" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O282" s="3"/>
+    </row>
+    <row r="283" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>280</v>
       </c>
@@ -63501,15 +63836,16 @@
       <c r="K283" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L283" s="3" t="s">
+      <c r="L283" s="3"/>
+      <c r="M283" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M283" s="3">
+      <c r="N283" s="3">
         <v>0.2</v>
       </c>
-      <c r="N283" s="3"/>
-    </row>
-    <row r="284" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O283" s="3"/>
+    </row>
+    <row r="284" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>281</v>
       </c>
@@ -63544,15 +63880,16 @@
       <c r="K284" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L284" s="3" t="s">
+      <c r="L284" s="3"/>
+      <c r="M284" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M284" s="3">
+      <c r="N284" s="3">
         <v>0.2</v>
       </c>
-      <c r="N284" s="3"/>
-    </row>
-    <row r="285" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O284" s="3"/>
+    </row>
+    <row r="285" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>282</v>
       </c>
@@ -63587,15 +63924,16 @@
       <c r="K285" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L285" s="3" t="s">
+      <c r="L285" s="3"/>
+      <c r="M285" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M285" s="3">
+      <c r="N285" s="3">
         <v>0.2</v>
       </c>
-      <c r="N285" s="3"/>
-    </row>
-    <row r="286" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O285" s="3"/>
+    </row>
+    <row r="286" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>283</v>
       </c>
@@ -63630,15 +63968,16 @@
       <c r="K286" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L286" s="3" t="s">
+      <c r="L286" s="3"/>
+      <c r="M286" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M286" s="3">
+      <c r="N286" s="3">
         <v>0.2</v>
       </c>
-      <c r="N286" s="3"/>
-    </row>
-    <row r="287" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O286" s="3"/>
+    </row>
+    <row r="287" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>284</v>
       </c>
@@ -63673,15 +64012,16 @@
       <c r="K287" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L287" s="3" t="s">
+      <c r="L287" s="3"/>
+      <c r="M287" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M287" s="3">
+      <c r="N287" s="3">
         <v>0.2</v>
       </c>
-      <c r="N287" s="3"/>
-    </row>
-    <row r="288" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O287" s="3"/>
+    </row>
+    <row r="288" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>285</v>
       </c>
@@ -63716,15 +64056,16 @@
       <c r="K288" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L288" s="3" t="s">
+      <c r="L288" s="3"/>
+      <c r="M288" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M288" s="3">
+      <c r="N288" s="3">
         <v>0.2</v>
       </c>
-      <c r="N288" s="3"/>
-    </row>
-    <row r="289" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O288" s="3"/>
+    </row>
+    <row r="289" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>286</v>
       </c>
@@ -63758,15 +64099,16 @@
       <c r="K289" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L289" s="3" t="s">
+      <c r="L289" s="3"/>
+      <c r="M289" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M289" s="3">
+      <c r="N289" s="3">
         <v>100</v>
       </c>
-      <c r="N289" s="3"/>
-    </row>
-    <row r="290" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O289" s="3"/>
+    </row>
+    <row r="290" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>287</v>
       </c>
@@ -63800,15 +64142,16 @@
       <c r="K290" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L290" s="3" t="s">
+      <c r="L290" s="3"/>
+      <c r="M290" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M290" s="3">
+      <c r="N290" s="3">
         <v>1000</v>
       </c>
-      <c r="N290" s="3"/>
-    </row>
-    <row r="291" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O290" s="3"/>
+    </row>
+    <row r="291" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>288</v>
       </c>
@@ -63843,15 +64186,18 @@
       <c r="K291" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="L291" s="3" t="s">
-        <v>163</v>
+      <c r="L291" s="4">
+        <v>1</v>
       </c>
       <c r="M291" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N291" s="3"/>
-    </row>
-    <row r="292" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N291" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O291" s="3"/>
+    </row>
+    <row r="292" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>289</v>
       </c>
@@ -63886,15 +64232,16 @@
       <c r="K292" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L292" s="3" t="s">
+      <c r="L292" s="3"/>
+      <c r="M292" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M292" s="3">
+      <c r="N292" s="3">
         <v>0.15</v>
       </c>
-      <c r="N292" s="3"/>
-    </row>
-    <row r="293" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O292" s="3"/>
+    </row>
+    <row r="293" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>290</v>
       </c>
@@ -63929,15 +64276,16 @@
       <c r="K293" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L293" s="3" t="s">
+      <c r="L293" s="3"/>
+      <c r="M293" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M293" s="3">
+      <c r="N293" s="3">
         <v>0.15</v>
       </c>
-      <c r="N293" s="3"/>
-    </row>
-    <row r="294" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O293" s="3"/>
+    </row>
+    <row r="294" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>291</v>
       </c>
@@ -63972,15 +64320,16 @@
       <c r="K294" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L294" s="3" t="s">
+      <c r="L294" s="3"/>
+      <c r="M294" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M294" s="3">
+      <c r="N294" s="3">
         <v>0.3</v>
       </c>
-      <c r="N294" s="3"/>
-    </row>
-    <row r="295" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O294" s="3"/>
+    </row>
+    <row r="295" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>292</v>
       </c>
@@ -64015,15 +64364,16 @@
       <c r="K295" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L295" s="3" t="s">
+      <c r="L295" s="3"/>
+      <c r="M295" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M295" s="3">
+      <c r="N295" s="3">
         <v>0.15</v>
       </c>
-      <c r="N295" s="3"/>
-    </row>
-    <row r="296" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O295" s="3"/>
+    </row>
+    <row r="296" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>293</v>
       </c>
@@ -64058,15 +64408,16 @@
       <c r="K296" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L296" s="3" t="s">
+      <c r="L296" s="3"/>
+      <c r="M296" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M296" s="3">
+      <c r="N296" s="3">
         <v>0.3</v>
       </c>
-      <c r="N296" s="3"/>
-    </row>
-    <row r="297" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O296" s="3"/>
+    </row>
+    <row r="297" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>294</v>
       </c>
@@ -64101,15 +64452,16 @@
       <c r="K297" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L297" s="3" t="s">
+      <c r="L297" s="3"/>
+      <c r="M297" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M297" s="3">
+      <c r="N297" s="3">
         <v>0.15</v>
       </c>
-      <c r="N297" s="3"/>
-    </row>
-    <row r="298" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>295</v>
       </c>
@@ -64144,15 +64496,16 @@
       <c r="K298" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L298" s="3" t="s">
+      <c r="L298" s="3"/>
+      <c r="M298" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M298" s="3">
+      <c r="N298" s="3">
         <v>0.2</v>
       </c>
-      <c r="N298" s="3"/>
-    </row>
-    <row r="299" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O298" s="3"/>
+    </row>
+    <row r="299" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>296</v>
       </c>
@@ -64187,15 +64540,16 @@
       <c r="K299" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L299" s="3" t="s">
+      <c r="L299" s="3"/>
+      <c r="M299" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M299" s="3">
+      <c r="N299" s="3">
         <v>0.2</v>
       </c>
-      <c r="N299" s="3"/>
-    </row>
-    <row r="300" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O299" s="3"/>
+    </row>
+    <row r="300" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>297</v>
       </c>
@@ -64230,15 +64584,16 @@
       <c r="K300" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L300" s="3" t="s">
+      <c r="L300" s="3"/>
+      <c r="M300" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M300" s="3">
+      <c r="N300" s="3">
         <v>0.4</v>
       </c>
-      <c r="N300" s="3"/>
-    </row>
-    <row r="301" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O300" s="3"/>
+    </row>
+    <row r="301" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>298</v>
       </c>
@@ -64273,15 +64628,16 @@
       <c r="K301" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L301" s="3" t="s">
+      <c r="L301" s="3"/>
+      <c r="M301" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M301" s="3">
+      <c r="N301" s="3">
         <v>0.2</v>
       </c>
-      <c r="N301" s="3"/>
-    </row>
-    <row r="302" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O301" s="3"/>
+    </row>
+    <row r="302" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>299</v>
       </c>
@@ -64316,15 +64672,16 @@
       <c r="K302" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L302" s="3" t="s">
+      <c r="L302" s="3"/>
+      <c r="M302" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M302" s="3">
+      <c r="N302" s="3">
         <v>0.4</v>
       </c>
-      <c r="N302" s="3"/>
-    </row>
-    <row r="303" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O302" s="3"/>
+    </row>
+    <row r="303" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>300</v>
       </c>
@@ -64359,15 +64716,16 @@
       <c r="K303" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L303" s="3" t="s">
+      <c r="L303" s="3"/>
+      <c r="M303" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M303" s="3">
+      <c r="N303" s="3">
         <v>0.2</v>
       </c>
-      <c r="N303" s="3"/>
-    </row>
-    <row r="304" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O303" s="3"/>
+    </row>
+    <row r="304" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>301</v>
       </c>
@@ -64401,15 +64759,16 @@
       <c r="K304" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L304" s="3" t="s">
+      <c r="L304" s="3"/>
+      <c r="M304" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M304" s="3">
+      <c r="N304" s="3">
         <v>100</v>
       </c>
-      <c r="N304" s="3"/>
-    </row>
-    <row r="305" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O304" s="3"/>
+    </row>
+    <row r="305" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>302</v>
       </c>
@@ -64443,15 +64802,16 @@
       <c r="K305" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L305" s="3" t="s">
+      <c r="L305" s="3"/>
+      <c r="M305" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M305" s="3">
+      <c r="N305" s="3">
         <v>1000</v>
       </c>
-      <c r="N305" s="3"/>
-    </row>
-    <row r="306" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O305" s="3"/>
+    </row>
+    <row r="306" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>303</v>
       </c>
@@ -64486,15 +64846,18 @@
       <c r="K306" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="L306" s="3" t="s">
-        <v>163</v>
+      <c r="L306" s="4">
+        <v>1</v>
       </c>
       <c r="M306" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N306" s="3"/>
-    </row>
-    <row r="307" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N306" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O306" s="3"/>
+    </row>
+    <row r="307" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>304</v>
       </c>
@@ -64529,15 +64892,16 @@
       <c r="K307" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L307" s="3" t="s">
+      <c r="L307" s="3"/>
+      <c r="M307" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M307" s="3">
+      <c r="N307" s="3">
         <v>0.15</v>
       </c>
-      <c r="N307" s="3"/>
-    </row>
-    <row r="308" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O307" s="3"/>
+    </row>
+    <row r="308" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>305</v>
       </c>
@@ -64572,15 +64936,16 @@
       <c r="K308" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L308" s="3" t="s">
+      <c r="L308" s="3"/>
+      <c r="M308" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M308" s="3">
+      <c r="N308" s="3">
         <v>0.15</v>
       </c>
-      <c r="N308" s="3"/>
-    </row>
-    <row r="309" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O308" s="3"/>
+    </row>
+    <row r="309" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>306</v>
       </c>
@@ -64615,15 +64980,16 @@
       <c r="K309" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L309" s="3" t="s">
+      <c r="L309" s="3"/>
+      <c r="M309" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M309" s="3">
+      <c r="N309" s="3">
         <v>0.15</v>
       </c>
-      <c r="N309" s="3"/>
-    </row>
-    <row r="310" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O309" s="3"/>
+    </row>
+    <row r="310" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>307</v>
       </c>
@@ -64658,15 +65024,16 @@
       <c r="K310" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L310" s="3" t="s">
+      <c r="L310" s="3"/>
+      <c r="M310" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M310" s="3">
+      <c r="N310" s="3">
         <v>0.15</v>
       </c>
-      <c r="N310" s="3"/>
-    </row>
-    <row r="311" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O310" s="3"/>
+    </row>
+    <row r="311" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>308</v>
       </c>
@@ -64701,15 +65068,16 @@
       <c r="K311" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L311" s="3" t="s">
+      <c r="L311" s="3"/>
+      <c r="M311" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M311" s="3">
+      <c r="N311" s="3">
         <v>0.15</v>
       </c>
-      <c r="N311" s="3"/>
-    </row>
-    <row r="312" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O311" s="3"/>
+    </row>
+    <row r="312" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>309</v>
       </c>
@@ -64744,15 +65112,16 @@
       <c r="K312" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L312" s="3" t="s">
+      <c r="L312" s="3"/>
+      <c r="M312" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M312" s="3">
+      <c r="N312" s="3">
         <v>0.15</v>
       </c>
-      <c r="N312" s="3"/>
-    </row>
-    <row r="313" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O312" s="3"/>
+    </row>
+    <row r="313" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>310</v>
       </c>
@@ -64787,15 +65156,16 @@
       <c r="K313" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L313" s="3" t="s">
+      <c r="L313" s="3"/>
+      <c r="M313" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M313" s="3">
+      <c r="N313" s="3">
         <v>0.2</v>
       </c>
-      <c r="N313" s="3"/>
-    </row>
-    <row r="314" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O313" s="3"/>
+    </row>
+    <row r="314" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>311</v>
       </c>
@@ -64830,15 +65200,16 @@
       <c r="K314" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L314" s="3" t="s">
+      <c r="L314" s="3"/>
+      <c r="M314" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M314" s="3">
+      <c r="N314" s="3">
         <v>0.2</v>
       </c>
-      <c r="N314" s="3"/>
-    </row>
-    <row r="315" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O314" s="3"/>
+    </row>
+    <row r="315" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>312</v>
       </c>
@@ -64873,15 +65244,16 @@
       <c r="K315" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L315" s="3" t="s">
+      <c r="L315" s="3"/>
+      <c r="M315" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M315" s="3">
+      <c r="N315" s="3">
         <v>0.2</v>
       </c>
-      <c r="N315" s="3"/>
-    </row>
-    <row r="316" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O315" s="3"/>
+    </row>
+    <row r="316" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>313</v>
       </c>
@@ -64916,15 +65288,16 @@
       <c r="K316" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L316" s="3" t="s">
+      <c r="L316" s="3"/>
+      <c r="M316" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M316" s="3">
+      <c r="N316" s="3">
         <v>0.2</v>
       </c>
-      <c r="N316" s="3"/>
-    </row>
-    <row r="317" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O316" s="3"/>
+    </row>
+    <row r="317" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>314</v>
       </c>
@@ -64959,15 +65332,16 @@
       <c r="K317" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L317" s="3" t="s">
+      <c r="L317" s="3"/>
+      <c r="M317" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M317" s="3">
+      <c r="N317" s="3">
         <v>0.2</v>
       </c>
-      <c r="N317" s="3"/>
-    </row>
-    <row r="318" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O317" s="3"/>
+    </row>
+    <row r="318" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>315</v>
       </c>
@@ -65002,13 +65376,14 @@
       <c r="K318" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L318" s="3" t="s">
+      <c r="L318" s="3"/>
+      <c r="M318" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M318" s="3">
+      <c r="N318" s="3">
         <v>0.2</v>
       </c>
-      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/excluWp.专属武器.xlsx
+++ b/Excel/镇魂街/excluWp.专属武器.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A6EA9-ED57-4511-AFA3-D6CA1C5D38CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="专属武器强化" sheetId="28" r:id="rId3"/>
     <sheet name="专属武器解封" sheetId="27" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7084" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7087" uniqueCount="281">
   <si>
     <t>sheet名</t>
   </si>
@@ -1028,11 +1027,23 @@
     <t>效果等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1246,19 +1257,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1535,7 +1546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1701,11 +1712,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:K24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1714,23 +1725,23 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
-    <col min="13" max="13" width="18.625" customWidth="1"/>
-    <col min="14" max="14" width="20.5" customWidth="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="24.75" customWidth="1"/>
+    <col min="5" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="18.125" customWidth="1"/>
+    <col min="19" max="19" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>119</v>
       </c>
@@ -1747,46 +1758,49 @@
         <v>152</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -1803,46 +1817,49 @@
         <v>150</v>
       </c>
       <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>122</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>122</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>122</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>107</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>107</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -1859,46 +1876,49 @@
         <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1501001</v>
       </c>
@@ -1914,43 +1934,46 @@
       <c r="E4" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="3">
-        <v>23625</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>11672</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="3">
-        <v>11812</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="3">
+        <v>5836</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="3">
-        <v>11812</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3">
+        <v>5836</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>1000</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>30</v>
       </c>
-      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1501002</v>
       </c>
@@ -1966,43 +1989,46 @@
       <c r="E5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="3">
-        <v>6930</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>3441</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="3">
-        <v>17325</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3">
+        <v>8604</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="3">
-        <v>17325</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3">
+        <v>8604</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>1000</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>30</v>
       </c>
-      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1501003</v>
       </c>
@@ -2018,43 +2044,46 @@
       <c r="E6" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="3">
-        <v>24948</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>12391</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="3">
-        <v>9702</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="3">
+        <v>4818</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="3">
-        <v>6930</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3">
+        <v>3441</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>1000</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>30</v>
       </c>
-      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1501004</v>
       </c>
@@ -2070,43 +2099,46 @@
       <c r="E7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="3">
-        <v>27720</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="3">
+        <v>13169</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="3">
-        <v>3780</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="3">
+        <v>1795</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K7" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="3">
+        <v>2993</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>1000</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>30</v>
       </c>
-      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1501005</v>
       </c>
@@ -2122,43 +2154,46 @@
       <c r="E8" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="3">
-        <v>6930</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3">
+        <v>3441</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="3">
-        <v>13860</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="3">
+        <v>6883</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="3">
-        <v>20790</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="3">
+        <v>10325</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30</v>
       </c>
-      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1501006</v>
       </c>
@@ -2174,43 +2209,46 @@
       <c r="E9" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="3">
-        <v>23625</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>11672</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="3">
-        <v>15750</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>7781</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="3">
-        <v>7875</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3">
+        <v>3890</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30</v>
       </c>
-      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1501007</v>
       </c>
@@ -2226,43 +2264,46 @@
       <c r="E10" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="3">
-        <v>19404</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3">
+        <v>9637</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="3">
-        <v>11088</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3">
+        <v>5507</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="3">
-        <v>11088</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3">
+        <v>5507</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30</v>
       </c>
-      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1501008</v>
       </c>
@@ -2278,43 +2319,46 @@
       <c r="E11" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="3">
+        <v>15563</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="3">
-        <v>7875</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="3">
+        <v>3890</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="3">
-        <v>7875</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="3">
+        <v>3890</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>1000</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>30</v>
       </c>
-      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1501009</v>
       </c>
@@ -2330,43 +2374,46 @@
       <c r="E12" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="3">
-        <v>7875</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>3890</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="3">
-        <v>23625</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="3">
+        <v>11672</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="3">
-        <v>15750</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="3">
+        <v>7781</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30</v>
       </c>
-      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1501010</v>
       </c>
@@ -2382,43 +2429,46 @@
       <c r="E13" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="3">
-        <v>23625</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="3">
+        <v>11672</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="3">
-        <v>11812</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="3">
+        <v>5836</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="3">
-        <v>11812</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="3">
+        <v>5836</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>1000</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>30</v>
       </c>
-      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1501011</v>
       </c>
@@ -2434,43 +2484,46 @@
       <c r="E14" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="3">
-        <v>12600</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>6225</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="3">
-        <v>7875</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>3890</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="3">
-        <v>26775</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>13229</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>30</v>
       </c>
-      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1501012</v>
       </c>
@@ -2486,43 +2539,46 @@
       <c r="E15" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="3">
-        <v>15750</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>7781</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="3">
-        <v>15750</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>7781</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K15" s="3">
-        <v>15750</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>7781</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30</v>
       </c>
-      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1501013</v>
       </c>
@@ -2538,43 +2594,46 @@
       <c r="E16" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="3">
-        <v>25200</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="3">
+        <v>11972</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="3">
+        <v>2993</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="3">
+        <v>2993</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>1000</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>30</v>
       </c>
-      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1501014</v>
       </c>
@@ -2590,43 +2649,46 @@
       <c r="E17" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="3">
-        <v>20790</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="3">
+        <v>10325</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I17" s="3">
-        <v>13860</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="3">
+        <v>6883</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K17" s="3">
-        <v>6930</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="3">
+        <v>3441</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30</v>
       </c>
-      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1501015</v>
       </c>
@@ -2642,43 +2704,46 @@
       <c r="E18" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="3">
-        <v>12600</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="3">
+        <v>5986</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I18" s="3">
-        <v>12600</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="3">
+        <v>5986</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K18" s="3">
-        <v>12600</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="3">
+        <v>5986</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30</v>
       </c>
-      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1501016</v>
       </c>
@@ -2694,43 +2759,46 @@
       <c r="E19" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="3">
-        <v>7875</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="3">
+        <v>3890</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I19" s="3">
-        <v>23625</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="3">
+        <v>11672</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="3">
-        <v>15750</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="3">
+        <v>7781</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>1000</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>30</v>
       </c>
-      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1501017</v>
       </c>
@@ -2746,43 +2814,46 @@
       <c r="E20" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="3">
-        <v>27720</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="3">
+        <v>13767</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="3">
-        <v>6930</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="3">
+        <v>3441</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K20" s="3">
-        <v>6930</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="3">
+        <v>3441</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30</v>
       </c>
-      <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1501018</v>
       </c>
@@ -2798,43 +2869,46 @@
       <c r="E21" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="3">
-        <v>25200</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="3">
+        <v>11972</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I21" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="3">
+        <v>2993</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="3">
+        <v>2993</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30</v>
       </c>
-      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1501019</v>
       </c>
@@ -2850,43 +2924,46 @@
       <c r="E22" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="3">
-        <v>10080</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>4788</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="3">
-        <v>15120</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>7183</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="3">
-        <v>12600</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>5986</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30</v>
       </c>
-      <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1501020</v>
       </c>
@@ -2902,43 +2979,46 @@
       <c r="E23" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="3">
-        <v>27720</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="3">
+        <v>13767</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="3">
-        <v>6930</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="3">
+        <v>3441</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K23" s="3">
-        <v>6930</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="3">
+        <v>3441</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30</v>
       </c>
-      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1501021</v>
       </c>
@@ -2954,39 +3034,42 @@
       <c r="E24" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3">
+        <v>8979</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="3">
-        <v>9450</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="3">
+        <v>4489</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="3">
-        <v>9450</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>4489</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30</v>
       </c>
-      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2998,7 +3081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51360,10 +51443,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -51637,7 +51720,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B6,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B6,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J6" s="3">
@@ -51683,7 +51766,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B7,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B7,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J7" s="3">
@@ -51727,7 +51810,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B8,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B8,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J8" s="3">
@@ -51771,7 +51854,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B9,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B9,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J9" s="3">
@@ -51815,7 +51898,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B10,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B10,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J10" s="3">
@@ -51859,7 +51942,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B11,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B11,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J11" s="3">
@@ -51903,7 +51986,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B12,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B12,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J12" s="3">
@@ -51947,7 +52030,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B13,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B13,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J13" s="3">
@@ -51991,7 +52074,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B14,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B14,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J14" s="3">
@@ -52035,7 +52118,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B15,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B15,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J15" s="3">
@@ -52079,7 +52162,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B16,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B16,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J16" s="3">
@@ -52123,7 +52206,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B17,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B17,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J17" s="3">
@@ -52167,7 +52250,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B18,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B18,专属武器!$B$4:$B$24,0))</f>
         <v>关羽专属武器碎片</v>
       </c>
       <c r="J18" s="3">
@@ -52297,7 +52380,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B21,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B21,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J21" s="3">
@@ -52343,7 +52426,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B22,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B22,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J22" s="3">
@@ -52387,7 +52470,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B23,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B23,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J23" s="3">
@@ -52431,7 +52514,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B24,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B24,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J24" s="3">
@@ -52475,7 +52558,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B25,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B25,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J25" s="3">
@@ -52519,7 +52602,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B26,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B26,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J26" s="3">
@@ -52563,7 +52646,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B27,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B27,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J27" s="3">
@@ -52607,7 +52690,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B28,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B28,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J28" s="3">
@@ -52651,7 +52734,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B29,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B29,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J29" s="3">
@@ -52695,7 +52778,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B30,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B30,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J30" s="3">
@@ -52739,7 +52822,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B31,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B31,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J31" s="3">
@@ -52783,7 +52866,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B32,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B32,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J32" s="3">
@@ -52827,7 +52910,7 @@
         <v>7</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B33,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B33,专属武器!$B$4:$B$24,0))</f>
         <v>许褚专属武器碎片</v>
       </c>
       <c r="J33" s="3">
@@ -52957,7 +53040,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B36,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B36,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J36" s="3">
@@ -53003,7 +53086,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B37,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B37,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J37" s="3">
@@ -53047,7 +53130,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B38,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B38,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J38" s="3">
@@ -53091,7 +53174,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B39,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B39,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J39" s="3">
@@ -53135,7 +53218,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B40,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B40,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J40" s="3">
@@ -53179,7 +53262,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B41,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B41,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J41" s="3">
@@ -53223,7 +53306,7 @@
         <v>3</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B42,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B42,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J42" s="3">
@@ -53267,7 +53350,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B43,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B43,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J43" s="3">
@@ -53311,7 +53394,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B44,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B44,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J44" s="3">
@@ -53355,7 +53438,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B45,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B45,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J45" s="3">
@@ -53399,7 +53482,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B46,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B46,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J46" s="3">
@@ -53443,7 +53526,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B47,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B47,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J47" s="3">
@@ -53487,7 +53570,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B48,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B48,专属武器!$B$4:$B$24,0))</f>
         <v>典韦专属武器碎片</v>
       </c>
       <c r="J48" s="3">
@@ -53617,7 +53700,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B51,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B51,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J51" s="3">
@@ -53663,7 +53746,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B52,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B52,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J52" s="3">
@@ -53707,7 +53790,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B53,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B53,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J53" s="3">
@@ -53751,7 +53834,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B54,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B54,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J54" s="3">
@@ -53795,7 +53878,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B55,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B55,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J55" s="3">
@@ -53839,7 +53922,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B56,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B56,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J56" s="3">
@@ -53883,7 +53966,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B57,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B57,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J57" s="3">
@@ -53927,7 +54010,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B58,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B58,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J58" s="3">
@@ -53971,7 +54054,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B59,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B59,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J59" s="3">
@@ -54015,7 +54098,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B60,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B60,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J60" s="3">
@@ -54059,7 +54142,7 @@
         <v>7</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B61,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B61,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J61" s="3">
@@ -54103,7 +54186,7 @@
         <v>7</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B62,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B62,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J62" s="3">
@@ -54147,7 +54230,7 @@
         <v>7</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B63,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B63,专属武器!$B$4:$B$24,0))</f>
         <v>唐流雨专属武器碎片</v>
       </c>
       <c r="J63" s="3">
@@ -54277,7 +54360,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B66,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B66,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J66" s="3">
@@ -54323,7 +54406,7 @@
         <v>2</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B67,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B67,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J67" s="3">
@@ -54367,7 +54450,7 @@
         <v>2</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B68,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B68,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J68" s="3">
@@ -54411,7 +54494,7 @@
         <v>2</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B69,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B69,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J69" s="3">
@@ -54455,7 +54538,7 @@
         <v>3</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B70,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B70,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J70" s="3">
@@ -54499,7 +54582,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B71,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B71,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J71" s="3">
@@ -54543,7 +54626,7 @@
         <v>3</v>
       </c>
       <c r="I72" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B72,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B72,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J72" s="3">
@@ -54587,7 +54670,7 @@
         <v>5</v>
       </c>
       <c r="I73" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B73,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B73,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J73" s="3">
@@ -54631,7 +54714,7 @@
         <v>5</v>
       </c>
       <c r="I74" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B74,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B74,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J74" s="3">
@@ -54675,7 +54758,7 @@
         <v>5</v>
       </c>
       <c r="I75" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B75,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B75,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J75" s="3">
@@ -54719,7 +54802,7 @@
         <v>7</v>
       </c>
       <c r="I76" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B76,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B76,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J76" s="3">
@@ -54763,7 +54846,7 @@
         <v>7</v>
       </c>
       <c r="I77" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B77,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B77,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J77" s="3">
@@ -54807,7 +54890,7 @@
         <v>7</v>
       </c>
       <c r="I78" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B78,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B78,专属武器!$B$4:$B$24,0))</f>
         <v>李轩辕专属武器碎片</v>
       </c>
       <c r="J78" s="3">
@@ -54937,7 +55020,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B81,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B81,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J81" s="3">
@@ -54983,7 +55066,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B82,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B82,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J82" s="3">
@@ -55027,7 +55110,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B83,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B83,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J83" s="3">
@@ -55071,7 +55154,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B84,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B84,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J84" s="3">
@@ -55115,7 +55198,7 @@
         <v>3</v>
       </c>
       <c r="I85" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B85,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B85,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J85" s="3">
@@ -55159,7 +55242,7 @@
         <v>3</v>
       </c>
       <c r="I86" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B86,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B86,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J86" s="3">
@@ -55203,7 +55286,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B87,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B87,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J87" s="3">
@@ -55247,7 +55330,7 @@
         <v>5</v>
       </c>
       <c r="I88" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B88,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B88,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J88" s="3">
@@ -55291,7 +55374,7 @@
         <v>5</v>
       </c>
       <c r="I89" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B89,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B89,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J89" s="3">
@@ -55335,7 +55418,7 @@
         <v>5</v>
       </c>
       <c r="I90" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B90,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B90,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J90" s="3">
@@ -55379,7 +55462,7 @@
         <v>7</v>
       </c>
       <c r="I91" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B91,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B91,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J91" s="3">
@@ -55423,7 +55506,7 @@
         <v>7</v>
       </c>
       <c r="I92" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B92,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B92,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J92" s="3">
@@ -55467,7 +55550,7 @@
         <v>7</v>
       </c>
       <c r="I93" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B93,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B93,专属武器!$B$4:$B$24,0))</f>
         <v>项羽专属武器碎片</v>
       </c>
       <c r="J93" s="3">
@@ -55597,7 +55680,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B96,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B96,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J96" s="3">
@@ -55643,7 +55726,7 @@
         <v>2</v>
       </c>
       <c r="I97" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B97,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B97,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J97" s="3">
@@ -55687,7 +55770,7 @@
         <v>2</v>
       </c>
       <c r="I98" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B98,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B98,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J98" s="3">
@@ -55731,7 +55814,7 @@
         <v>2</v>
       </c>
       <c r="I99" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B99,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B99,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J99" s="3">
@@ -55775,7 +55858,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B100,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B100,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J100" s="3">
@@ -55819,7 +55902,7 @@
         <v>3</v>
       </c>
       <c r="I101" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B101,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B101,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J101" s="3">
@@ -55863,7 +55946,7 @@
         <v>3</v>
       </c>
       <c r="I102" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B102,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B102,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J102" s="3">
@@ -55907,7 +55990,7 @@
         <v>5</v>
       </c>
       <c r="I103" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B103,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B103,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J103" s="3">
@@ -55951,7 +56034,7 @@
         <v>5</v>
       </c>
       <c r="I104" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B104,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B104,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J104" s="3">
@@ -55995,7 +56078,7 @@
         <v>5</v>
       </c>
       <c r="I105" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B105,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B105,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J105" s="3">
@@ -56039,7 +56122,7 @@
         <v>7</v>
       </c>
       <c r="I106" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B106,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B106,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J106" s="3">
@@ -56083,7 +56166,7 @@
         <v>7</v>
       </c>
       <c r="I107" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B107,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B107,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J107" s="3">
@@ -56127,7 +56210,7 @@
         <v>7</v>
       </c>
       <c r="I108" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B108,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B108,专属武器!$B$4:$B$24,0))</f>
         <v>天使缇娜专属武器碎片</v>
       </c>
       <c r="J108" s="3">
@@ -56257,7 +56340,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B111,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B111,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J111" s="3">
@@ -56303,7 +56386,7 @@
         <v>2</v>
       </c>
       <c r="I112" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B112,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B112,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J112" s="3">
@@ -56347,7 +56430,7 @@
         <v>2</v>
       </c>
       <c r="I113" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B113,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B113,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J113" s="3">
@@ -56391,7 +56474,7 @@
         <v>2</v>
       </c>
       <c r="I114" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B114,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B114,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J114" s="3">
@@ -56435,7 +56518,7 @@
         <v>3</v>
       </c>
       <c r="I115" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B115,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B115,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J115" s="3">
@@ -56479,7 +56562,7 @@
         <v>3</v>
       </c>
       <c r="I116" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B116,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B116,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J116" s="3">
@@ -56523,7 +56606,7 @@
         <v>3</v>
       </c>
       <c r="I117" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B117,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B117,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J117" s="3">
@@ -56567,7 +56650,7 @@
         <v>5</v>
       </c>
       <c r="I118" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B118,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B118,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J118" s="3">
@@ -56611,7 +56694,7 @@
         <v>5</v>
       </c>
       <c r="I119" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B119,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B119,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J119" s="3">
@@ -56655,7 +56738,7 @@
         <v>5</v>
       </c>
       <c r="I120" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B120,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B120,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J120" s="3">
@@ -56699,7 +56782,7 @@
         <v>7</v>
       </c>
       <c r="I121" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B121,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B121,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J121" s="3">
@@ -56743,7 +56826,7 @@
         <v>7</v>
       </c>
       <c r="I122" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B122,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B122,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J122" s="3">
@@ -56787,7 +56870,7 @@
         <v>7</v>
       </c>
       <c r="I123" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B123,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B123,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯渊专属武器碎片</v>
       </c>
       <c r="J123" s="3">
@@ -56917,7 +57000,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B126,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B126,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J126" s="3">
@@ -56963,7 +57046,7 @@
         <v>2</v>
       </c>
       <c r="I127" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B127,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B127,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J127" s="3">
@@ -57007,7 +57090,7 @@
         <v>2</v>
       </c>
       <c r="I128" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B128,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B128,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J128" s="3">
@@ -57051,7 +57134,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B129,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B129,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J129" s="3">
@@ -57095,7 +57178,7 @@
         <v>3</v>
       </c>
       <c r="I130" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B130,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B130,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J130" s="3">
@@ -57139,7 +57222,7 @@
         <v>3</v>
       </c>
       <c r="I131" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B131,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B131,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J131" s="3">
@@ -57183,7 +57266,7 @@
         <v>3</v>
       </c>
       <c r="I132" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B132,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B132,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J132" s="3">
@@ -57227,7 +57310,7 @@
         <v>5</v>
       </c>
       <c r="I133" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B133,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B133,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J133" s="3">
@@ -57271,7 +57354,7 @@
         <v>5</v>
       </c>
       <c r="I134" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B134,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B134,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J134" s="3">
@@ -57315,7 +57398,7 @@
         <v>5</v>
       </c>
       <c r="I135" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B135,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B135,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J135" s="3">
@@ -57359,7 +57442,7 @@
         <v>7</v>
       </c>
       <c r="I136" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B136,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B136,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J136" s="3">
@@ -57403,7 +57486,7 @@
         <v>7</v>
       </c>
       <c r="I137" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B137,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B137,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J137" s="3">
@@ -57447,7 +57530,7 @@
         <v>7</v>
       </c>
       <c r="I138" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B138,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B138,专属武器!$B$4:$B$24,0))</f>
         <v>徐晃专属武器碎片</v>
       </c>
       <c r="J138" s="3">
@@ -57577,7 +57660,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B141,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B141,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J141" s="3">
@@ -57623,7 +57706,7 @@
         <v>2</v>
       </c>
       <c r="I142" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B142,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B142,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J142" s="3">
@@ -57667,7 +57750,7 @@
         <v>2</v>
       </c>
       <c r="I143" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B143,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B143,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J143" s="3">
@@ -57711,7 +57794,7 @@
         <v>2</v>
       </c>
       <c r="I144" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B144,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B144,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J144" s="3">
@@ -57755,7 +57838,7 @@
         <v>3</v>
       </c>
       <c r="I145" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B145,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B145,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J145" s="3">
@@ -57799,7 +57882,7 @@
         <v>3</v>
       </c>
       <c r="I146" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B146,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B146,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J146" s="3">
@@ -57843,7 +57926,7 @@
         <v>3</v>
       </c>
       <c r="I147" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B147,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B147,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J147" s="3">
@@ -57887,7 +57970,7 @@
         <v>5</v>
       </c>
       <c r="I148" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B148,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B148,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J148" s="3">
@@ -57931,7 +58014,7 @@
         <v>5</v>
       </c>
       <c r="I149" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B149,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B149,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J149" s="3">
@@ -57975,7 +58058,7 @@
         <v>5</v>
       </c>
       <c r="I150" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B150,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B150,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J150" s="3">
@@ -58019,7 +58102,7 @@
         <v>7</v>
       </c>
       <c r="I151" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B151,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B151,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J151" s="3">
@@ -58063,7 +58146,7 @@
         <v>7</v>
       </c>
       <c r="I152" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B152,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B152,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J152" s="3">
@@ -58107,7 +58190,7 @@
         <v>7</v>
       </c>
       <c r="I153" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B153,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B153,专属武器!$B$4:$B$24,0))</f>
         <v>张郃专属武器碎片</v>
       </c>
       <c r="J153" s="3">
@@ -58237,7 +58320,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B156,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B156,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J156" s="3">
@@ -58283,7 +58366,7 @@
         <v>2</v>
       </c>
       <c r="I157" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B157,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B157,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J157" s="3">
@@ -58327,7 +58410,7 @@
         <v>2</v>
       </c>
       <c r="I158" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B158,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B158,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J158" s="3">
@@ -58371,7 +58454,7 @@
         <v>2</v>
       </c>
       <c r="I159" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B159,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B159,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J159" s="3">
@@ -58415,7 +58498,7 @@
         <v>3</v>
       </c>
       <c r="I160" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B160,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B160,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J160" s="3">
@@ -58459,7 +58542,7 @@
         <v>3</v>
       </c>
       <c r="I161" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B161,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B161,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J161" s="3">
@@ -58503,7 +58586,7 @@
         <v>3</v>
       </c>
       <c r="I162" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B162,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B162,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J162" s="3">
@@ -58547,7 +58630,7 @@
         <v>5</v>
       </c>
       <c r="I163" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B163,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B163,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J163" s="3">
@@ -58591,7 +58674,7 @@
         <v>5</v>
       </c>
       <c r="I164" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B164,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B164,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J164" s="3">
@@ -58635,7 +58718,7 @@
         <v>5</v>
       </c>
       <c r="I165" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B165,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B165,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J165" s="3">
@@ -58679,7 +58762,7 @@
         <v>7</v>
       </c>
       <c r="I166" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B166,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B166,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J166" s="3">
@@ -58723,7 +58806,7 @@
         <v>7</v>
       </c>
       <c r="I167" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B167,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B167,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J167" s="3">
@@ -58767,7 +58850,7 @@
         <v>7</v>
       </c>
       <c r="I168" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B168,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B168,专属武器!$B$4:$B$24,0))</f>
         <v>张飞专属武器碎片</v>
       </c>
       <c r="J168" s="3">
@@ -58897,7 +58980,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B171,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B171,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J171" s="3">
@@ -58943,7 +59026,7 @@
         <v>2</v>
       </c>
       <c r="I172" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B172,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B172,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J172" s="3">
@@ -58987,7 +59070,7 @@
         <v>2</v>
       </c>
       <c r="I173" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B173,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B173,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J173" s="3">
@@ -59031,7 +59114,7 @@
         <v>2</v>
       </c>
       <c r="I174" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B174,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B174,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J174" s="3">
@@ -59075,7 +59158,7 @@
         <v>3</v>
       </c>
       <c r="I175" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B175,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B175,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J175" s="3">
@@ -59119,7 +59202,7 @@
         <v>3</v>
       </c>
       <c r="I176" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B176,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B176,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J176" s="3">
@@ -59163,7 +59246,7 @@
         <v>3</v>
       </c>
       <c r="I177" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B177,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B177,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J177" s="3">
@@ -59207,7 +59290,7 @@
         <v>5</v>
       </c>
       <c r="I178" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B178,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B178,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J178" s="3">
@@ -59251,7 +59334,7 @@
         <v>5</v>
       </c>
       <c r="I179" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B179,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B179,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J179" s="3">
@@ -59295,7 +59378,7 @@
         <v>5</v>
       </c>
       <c r="I180" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B180,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B180,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J180" s="3">
@@ -59339,7 +59422,7 @@
         <v>7</v>
       </c>
       <c r="I181" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B181,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B181,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J181" s="3">
@@ -59383,7 +59466,7 @@
         <v>7</v>
       </c>
       <c r="I182" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B182,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B182,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J182" s="3">
@@ -59427,7 +59510,7 @@
         <v>7</v>
       </c>
       <c r="I183" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B183,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B183,专属武器!$B$4:$B$24,0))</f>
         <v>夏侯惇专属武器碎片</v>
       </c>
       <c r="J183" s="3">
@@ -59557,7 +59640,7 @@
         <v>1</v>
       </c>
       <c r="I186" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B186,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B186,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J186" s="3">
@@ -59603,7 +59686,7 @@
         <v>2</v>
       </c>
       <c r="I187" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B187,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B187,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J187" s="3">
@@ -59647,7 +59730,7 @@
         <v>2</v>
       </c>
       <c r="I188" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B188,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B188,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J188" s="3">
@@ -59691,7 +59774,7 @@
         <v>2</v>
       </c>
       <c r="I189" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B189,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B189,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J189" s="3">
@@ -59735,7 +59818,7 @@
         <v>3</v>
       </c>
       <c r="I190" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B190,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B190,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J190" s="3">
@@ -59779,7 +59862,7 @@
         <v>3</v>
       </c>
       <c r="I191" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B191,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B191,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J191" s="3">
@@ -59823,7 +59906,7 @@
         <v>3</v>
       </c>
       <c r="I192" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B192,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B192,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J192" s="3">
@@ -59867,7 +59950,7 @@
         <v>5</v>
       </c>
       <c r="I193" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B193,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B193,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J193" s="3">
@@ -59911,7 +59994,7 @@
         <v>5</v>
       </c>
       <c r="I194" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B194,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B194,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J194" s="3">
@@ -59955,7 +60038,7 @@
         <v>5</v>
       </c>
       <c r="I195" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B195,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B195,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J195" s="3">
@@ -59999,7 +60082,7 @@
         <v>7</v>
       </c>
       <c r="I196" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B196,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B196,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J196" s="3">
@@ -60043,7 +60126,7 @@
         <v>7</v>
       </c>
       <c r="I197" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B197,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B197,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J197" s="3">
@@ -60087,7 +60170,7 @@
         <v>7</v>
       </c>
       <c r="I198" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B198,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B198,专属武器!$B$4:$B$24,0))</f>
         <v>塞伯罗斯专属武器碎片</v>
       </c>
       <c r="J198" s="3">
@@ -60217,7 +60300,7 @@
         <v>1</v>
       </c>
       <c r="I201" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B201,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B201,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J201" s="3">
@@ -60263,7 +60346,7 @@
         <v>2</v>
       </c>
       <c r="I202" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B202,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B202,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J202" s="3">
@@ -60307,7 +60390,7 @@
         <v>2</v>
       </c>
       <c r="I203" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B203,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B203,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J203" s="3">
@@ -60351,7 +60434,7 @@
         <v>2</v>
       </c>
       <c r="I204" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B204,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B204,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J204" s="3">
@@ -60395,7 +60478,7 @@
         <v>3</v>
       </c>
       <c r="I205" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B205,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B205,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J205" s="3">
@@ -60439,7 +60522,7 @@
         <v>3</v>
       </c>
       <c r="I206" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B206,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B206,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J206" s="3">
@@ -60483,7 +60566,7 @@
         <v>3</v>
       </c>
       <c r="I207" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B207,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B207,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J207" s="3">
@@ -60527,7 +60610,7 @@
         <v>5</v>
       </c>
       <c r="I208" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B208,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B208,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J208" s="3">
@@ -60571,7 +60654,7 @@
         <v>5</v>
       </c>
       <c r="I209" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B209,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B209,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J209" s="3">
@@ -60615,7 +60698,7 @@
         <v>5</v>
       </c>
       <c r="I210" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B210,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B210,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J210" s="3">
@@ -60659,7 +60742,7 @@
         <v>7</v>
       </c>
       <c r="I211" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B211,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B211,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J211" s="3">
@@ -60703,7 +60786,7 @@
         <v>7</v>
       </c>
       <c r="I212" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B212,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B212,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J212" s="3">
@@ -60747,7 +60830,7 @@
         <v>7</v>
       </c>
       <c r="I213" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B213,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B213,专属武器!$B$4:$B$24,0))</f>
         <v>石灵明专属武器碎片</v>
       </c>
       <c r="J213" s="3">
@@ -60877,7 +60960,7 @@
         <v>1</v>
       </c>
       <c r="I216" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B216,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B216,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J216" s="3">
@@ -60923,7 +61006,7 @@
         <v>2</v>
       </c>
       <c r="I217" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B217,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B217,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J217" s="3">
@@ -60967,7 +61050,7 @@
         <v>2</v>
       </c>
       <c r="I218" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B218,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B218,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J218" s="3">
@@ -61011,7 +61094,7 @@
         <v>2</v>
       </c>
       <c r="I219" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B219,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B219,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J219" s="3">
@@ -61055,7 +61138,7 @@
         <v>3</v>
       </c>
       <c r="I220" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B220,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B220,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J220" s="3">
@@ -61099,7 +61182,7 @@
         <v>3</v>
       </c>
       <c r="I221" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B221,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B221,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J221" s="3">
@@ -61143,7 +61226,7 @@
         <v>3</v>
       </c>
       <c r="I222" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B222,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B222,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J222" s="3">
@@ -61187,7 +61270,7 @@
         <v>5</v>
       </c>
       <c r="I223" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B223,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B223,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J223" s="3">
@@ -61231,7 +61314,7 @@
         <v>5</v>
       </c>
       <c r="I224" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B224,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B224,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J224" s="3">
@@ -61275,7 +61358,7 @@
         <v>5</v>
       </c>
       <c r="I225" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B225,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B225,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J225" s="3">
@@ -61319,7 +61402,7 @@
         <v>7</v>
       </c>
       <c r="I226" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B226,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B226,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J226" s="3">
@@ -61363,7 +61446,7 @@
         <v>7</v>
       </c>
       <c r="I227" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B227,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B227,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J227" s="3">
@@ -61407,7 +61490,7 @@
         <v>7</v>
       </c>
       <c r="I228" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B228,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B228,专属武器!$B$4:$B$24,0))</f>
         <v>于禁专属武器碎片</v>
       </c>
       <c r="J228" s="3">
@@ -61537,7 +61620,7 @@
         <v>1</v>
       </c>
       <c r="I231" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B231,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B231,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J231" s="3">
@@ -61583,7 +61666,7 @@
         <v>2</v>
       </c>
       <c r="I232" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B232,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B232,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J232" s="3">
@@ -61627,7 +61710,7 @@
         <v>2</v>
       </c>
       <c r="I233" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B233,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B233,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J233" s="3">
@@ -61671,7 +61754,7 @@
         <v>2</v>
       </c>
       <c r="I234" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B234,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B234,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J234" s="3">
@@ -61715,7 +61798,7 @@
         <v>3</v>
       </c>
       <c r="I235" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B235,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B235,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J235" s="3">
@@ -61759,7 +61842,7 @@
         <v>3</v>
       </c>
       <c r="I236" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B236,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B236,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J236" s="3">
@@ -61803,7 +61886,7 @@
         <v>3</v>
       </c>
       <c r="I237" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B237,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B237,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J237" s="3">
@@ -61847,7 +61930,7 @@
         <v>5</v>
       </c>
       <c r="I238" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B238,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B238,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J238" s="3">
@@ -61891,7 +61974,7 @@
         <v>5</v>
       </c>
       <c r="I239" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B239,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B239,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J239" s="3">
@@ -61935,7 +62018,7 @@
         <v>5</v>
       </c>
       <c r="I240" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B240,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B240,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J240" s="3">
@@ -61979,7 +62062,7 @@
         <v>7</v>
       </c>
       <c r="I241" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B241,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B241,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J241" s="3">
@@ -62023,7 +62106,7 @@
         <v>7</v>
       </c>
       <c r="I242" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B242,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B242,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J242" s="3">
@@ -62067,7 +62150,7 @@
         <v>7</v>
       </c>
       <c r="I243" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B243,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B243,专属武器!$B$4:$B$24,0))</f>
         <v>西方龙专属武器碎片</v>
       </c>
       <c r="J243" s="3">
@@ -62197,7 +62280,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B246,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B246,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J246" s="3">
@@ -62243,7 +62326,7 @@
         <v>2</v>
       </c>
       <c r="I247" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B247,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B247,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J247" s="3">
@@ -62287,7 +62370,7 @@
         <v>2</v>
       </c>
       <c r="I248" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B248,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B248,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J248" s="3">
@@ -62331,7 +62414,7 @@
         <v>2</v>
       </c>
       <c r="I249" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B249,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B249,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J249" s="3">
@@ -62375,7 +62458,7 @@
         <v>3</v>
       </c>
       <c r="I250" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B250,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B250,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J250" s="3">
@@ -62419,7 +62502,7 @@
         <v>3</v>
       </c>
       <c r="I251" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B251,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B251,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J251" s="3">
@@ -62463,7 +62546,7 @@
         <v>3</v>
       </c>
       <c r="I252" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B252,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B252,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J252" s="3">
@@ -62507,7 +62590,7 @@
         <v>5</v>
       </c>
       <c r="I253" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B253,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B253,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J253" s="3">
@@ -62551,7 +62634,7 @@
         <v>5</v>
       </c>
       <c r="I254" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B254,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B254,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J254" s="3">
@@ -62595,7 +62678,7 @@
         <v>5</v>
       </c>
       <c r="I255" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B255,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B255,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J255" s="3">
@@ -62639,7 +62722,7 @@
         <v>7</v>
       </c>
       <c r="I256" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B256,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B256,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J256" s="3">
@@ -62683,7 +62766,7 @@
         <v>7</v>
       </c>
       <c r="I257" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B257,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B257,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J257" s="3">
@@ -62727,7 +62810,7 @@
         <v>7</v>
       </c>
       <c r="I258" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B258,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B258,专属武器!$B$4:$B$24,0))</f>
         <v>飞廉专属武器碎片</v>
       </c>
       <c r="J258" s="3">
@@ -62857,7 +62940,7 @@
         <v>1</v>
       </c>
       <c r="I261" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B261,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B261,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J261" s="3">
@@ -62903,7 +62986,7 @@
         <v>2</v>
       </c>
       <c r="I262" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B262,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B262,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J262" s="3">
@@ -62947,7 +63030,7 @@
         <v>2</v>
       </c>
       <c r="I263" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B263,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B263,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J263" s="3">
@@ -62991,7 +63074,7 @@
         <v>2</v>
       </c>
       <c r="I264" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B264,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B264,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J264" s="3">
@@ -63035,7 +63118,7 @@
         <v>3</v>
       </c>
       <c r="I265" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B265,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B265,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J265" s="3">
@@ -63079,7 +63162,7 @@
         <v>3</v>
       </c>
       <c r="I266" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B266,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B266,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J266" s="3">
@@ -63123,7 +63206,7 @@
         <v>3</v>
       </c>
       <c r="I267" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B267,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B267,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J267" s="3">
@@ -63167,7 +63250,7 @@
         <v>5</v>
       </c>
       <c r="I268" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B268,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B268,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J268" s="3">
@@ -63211,7 +63294,7 @@
         <v>5</v>
       </c>
       <c r="I269" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B269,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B269,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J269" s="3">
@@ -63255,7 +63338,7 @@
         <v>5</v>
       </c>
       <c r="I270" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B270,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B270,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J270" s="3">
@@ -63299,7 +63382,7 @@
         <v>7</v>
       </c>
       <c r="I271" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B271,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B271,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J271" s="3">
@@ -63343,7 +63426,7 @@
         <v>7</v>
       </c>
       <c r="I272" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B272,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B272,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J272" s="3">
@@ -63387,7 +63470,7 @@
         <v>7</v>
       </c>
       <c r="I273" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B273,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B273,专属武器!$B$4:$B$24,0))</f>
         <v>噬日专属武器碎片</v>
       </c>
       <c r="J273" s="3">
@@ -63517,7 +63600,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B276,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B276,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J276" s="3">
@@ -63563,7 +63646,7 @@
         <v>2</v>
       </c>
       <c r="I277" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B277,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B277,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J277" s="3">
@@ -63607,7 +63690,7 @@
         <v>2</v>
       </c>
       <c r="I278" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B278,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B278,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J278" s="3">
@@ -63651,7 +63734,7 @@
         <v>2</v>
       </c>
       <c r="I279" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B279,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B279,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J279" s="3">
@@ -63695,7 +63778,7 @@
         <v>3</v>
       </c>
       <c r="I280" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B280,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B280,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J280" s="3">
@@ -63739,7 +63822,7 @@
         <v>3</v>
       </c>
       <c r="I281" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B281,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B281,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J281" s="3">
@@ -63783,7 +63866,7 @@
         <v>3</v>
       </c>
       <c r="I282" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B282,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B282,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J282" s="3">
@@ -63827,7 +63910,7 @@
         <v>5</v>
       </c>
       <c r="I283" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B283,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B283,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J283" s="3">
@@ -63871,7 +63954,7 @@
         <v>5</v>
       </c>
       <c r="I284" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B284,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B284,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J284" s="3">
@@ -63915,7 +63998,7 @@
         <v>5</v>
       </c>
       <c r="I285" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B285,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B285,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J285" s="3">
@@ -63959,7 +64042,7 @@
         <v>7</v>
       </c>
       <c r="I286" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B286,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B286,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J286" s="3">
@@ -64003,7 +64086,7 @@
         <v>7</v>
       </c>
       <c r="I287" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B287,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B287,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J287" s="3">
@@ -64047,7 +64130,7 @@
         <v>7</v>
       </c>
       <c r="I288" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B288,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B288,专属武器!$B$4:$B$24,0))</f>
         <v>食火蜥专属武器碎片</v>
       </c>
       <c r="J288" s="3">
@@ -64177,7 +64260,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B291,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B291,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J291" s="3">
@@ -64223,7 +64306,7 @@
         <v>2</v>
       </c>
       <c r="I292" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B292,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B292,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J292" s="3">
@@ -64267,7 +64350,7 @@
         <v>2</v>
       </c>
       <c r="I293" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B293,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B293,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J293" s="3">
@@ -64311,7 +64394,7 @@
         <v>2</v>
       </c>
       <c r="I294" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B294,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B294,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J294" s="3">
@@ -64355,7 +64438,7 @@
         <v>3</v>
       </c>
       <c r="I295" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B295,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B295,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J295" s="3">
@@ -64399,7 +64482,7 @@
         <v>3</v>
       </c>
       <c r="I296" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B296,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B296,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J296" s="3">
@@ -64443,7 +64526,7 @@
         <v>3</v>
       </c>
       <c r="I297" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B297,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B297,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J297" s="3">
@@ -64487,7 +64570,7 @@
         <v>5</v>
       </c>
       <c r="I298" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B298,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B298,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J298" s="3">
@@ -64531,7 +64614,7 @@
         <v>5</v>
       </c>
       <c r="I299" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B299,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B299,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J299" s="3">
@@ -64575,7 +64658,7 @@
         <v>5</v>
       </c>
       <c r="I300" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B300,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B300,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J300" s="3">
@@ -64619,7 +64702,7 @@
         <v>7</v>
       </c>
       <c r="I301" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B301,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B301,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J301" s="3">
@@ -64663,7 +64746,7 @@
         <v>7</v>
       </c>
       <c r="I302" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B302,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B302,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J302" s="3">
@@ -64707,7 +64790,7 @@
         <v>7</v>
       </c>
       <c r="I303" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B303,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B303,专属武器!$B$4:$B$24,0))</f>
         <v>高顺专属武器碎片</v>
       </c>
       <c r="J303" s="3">
@@ -64837,7 +64920,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B306,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B306,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J306" s="3">
@@ -64883,7 +64966,7 @@
         <v>2</v>
       </c>
       <c r="I307" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B307,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B307,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J307" s="3">
@@ -64927,7 +65010,7 @@
         <v>2</v>
       </c>
       <c r="I308" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B308,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B308,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J308" s="3">
@@ -64971,7 +65054,7 @@
         <v>2</v>
       </c>
       <c r="I309" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B309,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B309,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J309" s="3">
@@ -65015,7 +65098,7 @@
         <v>3</v>
       </c>
       <c r="I310" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B310,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B310,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J310" s="3">
@@ -65059,7 +65142,7 @@
         <v>3</v>
       </c>
       <c r="I311" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B311,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B311,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J311" s="3">
@@ -65103,7 +65186,7 @@
         <v>3</v>
       </c>
       <c r="I312" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B312,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B312,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J312" s="3">
@@ -65147,7 +65230,7 @@
         <v>5</v>
       </c>
       <c r="I313" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B313,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B313,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J313" s="3">
@@ -65191,7 +65274,7 @@
         <v>5</v>
       </c>
       <c r="I314" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B314,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B314,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J314" s="3">
@@ -65235,7 +65318,7 @@
         <v>5</v>
       </c>
       <c r="I315" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B315,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B315,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J315" s="3">
@@ -65279,7 +65362,7 @@
         <v>7</v>
       </c>
       <c r="I316" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B316,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B316,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J316" s="3">
@@ -65323,7 +65406,7 @@
         <v>7</v>
       </c>
       <c r="I317" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B317,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B317,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J317" s="3">
@@ -65367,7 +65450,7 @@
         <v>7</v>
       </c>
       <c r="I318" s="3" t="str">
-        <f>INDEX(专属武器!$N$4:$N$24,MATCH(专属武器解封!B318,专属武器!$B$4:$B$24,0))</f>
+        <f>INDEX(专属武器!$O$4:$O$24,MATCH(专属武器解封!B318,专属武器!$B$4:$B$24,0))</f>
         <v>烈风螳螂专属武器碎片</v>
       </c>
       <c r="J318" s="3">
